--- a/capiq_data/in_process_data/IQ293889.xlsx
+++ b/capiq_data/in_process_data/IQ293889.xlsx
@@ -1,22 +1,22 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23628"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23801"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\yedid\Desktop\capiq_3\in_process_data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\yedid\Desktop\credit_rating_predictions-main\capiq_data\in_process_data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EC74B43D-BB22-489C-A6C3-39CF4E16A13A}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BF29CD72-CF60-445F-BFFC-6901E8F0F3DF}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4800" yWindow="98" windowWidth="14400" windowHeight="8325" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-98" yWindow="-98" windowWidth="19396" windowHeight="11596" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="CIQWBGuid" hidden="1">"4e40f49c-7002-4e4a-9973-0a402fc8dc48"</definedName>
+    <definedName name="CIQWBGuid" hidden="1">"f174e00e-40e3-400f-90b8-18c8adc3d2e5"</definedName>
     <definedName name="CIQWBInfo" hidden="1">"{ ""CIQVersion"":""9.45.614.5792"" }"</definedName>
     <definedName name="IQ_CH">110000</definedName>
     <definedName name="IQ_CQ">5000</definedName>
@@ -41,40 +41,40 @@
     <definedName name="IQ_LTMMONTH" hidden="1">120000</definedName>
     <definedName name="IQ_MONTH">15000</definedName>
     <definedName name="IQ_MTD" hidden="1">800000</definedName>
-    <definedName name="IQ_NAMES_REVISION_DATE_" hidden="1">44257.9003703704</definedName>
+    <definedName name="IQ_NAMES_REVISION_DATE_" hidden="1">44278.8607986111</definedName>
     <definedName name="IQ_NTM">6000</definedName>
     <definedName name="IQ_QTD" hidden="1">750000</definedName>
     <definedName name="IQ_TODAY" hidden="1">0</definedName>
     <definedName name="IQ_WEEK">50000</definedName>
     <definedName name="IQ_YTD">3000</definedName>
     <definedName name="IQ_YTDMONTH" hidden="1">130000</definedName>
-    <definedName name="IQRA1" hidden="1">Sheet!$A$2:$A$42</definedName>
-    <definedName name="IQRAA1" hidden="1">Sheet!$AA$2:$AA$42</definedName>
-    <definedName name="IQRB1" hidden="1">Sheet!$B$2:$B$42</definedName>
-    <definedName name="IQRC1" hidden="1">Sheet!$C$2:$C$42</definedName>
-    <definedName name="IQRD1" hidden="1">Sheet!$D$2:$D$42</definedName>
-    <definedName name="IQRE1" hidden="1">Sheet!$E$2:$E$42</definedName>
-    <definedName name="IQRF1" hidden="1">Sheet!$F$2:$F$42</definedName>
-    <definedName name="IQRG1" hidden="1">Sheet!$G$2:$G$42</definedName>
-    <definedName name="IQRH1" hidden="1">Sheet!$H$2:$H$42</definedName>
-    <definedName name="IQRI1" hidden="1">Sheet!$I$2:$I$42</definedName>
-    <definedName name="IQRJ1" hidden="1">Sheet!$J$2:$J$42</definedName>
-    <definedName name="IQRK1" hidden="1">Sheet!$K$2:$K$42</definedName>
-    <definedName name="IQRL1" hidden="1">Sheet!$L$2:$L$42</definedName>
-    <definedName name="IQRM1" hidden="1">Sheet!$M$2:$M$42</definedName>
-    <definedName name="IQRN1" hidden="1">Sheet!$N$2:$N$42</definedName>
-    <definedName name="IQRO1" hidden="1">Sheet!$O$2:$O$42</definedName>
-    <definedName name="IQRP1" hidden="1">Sheet!$P$2:$P$42</definedName>
-    <definedName name="IQRQ1" hidden="1">Sheet!$Q$2:$Q$42</definedName>
-    <definedName name="IQRR1" hidden="1">Sheet!$R$2:$R$42</definedName>
-    <definedName name="IQRS1" hidden="1">Sheet!$S$2:$S$42</definedName>
-    <definedName name="IQRT1" hidden="1">Sheet!$T$2:$T$42</definedName>
-    <definedName name="IQRU1" hidden="1">Sheet!$U$2:$U$42</definedName>
-    <definedName name="IQRV1" hidden="1">Sheet!$V$2:$V$42</definedName>
-    <definedName name="IQRW1" hidden="1">Sheet!$W$2:$W$42</definedName>
-    <definedName name="IQRX1" hidden="1">Sheet!$X$2:$X$42</definedName>
-    <definedName name="IQRY1" hidden="1">Sheet!$Y$2:$Y$42</definedName>
-    <definedName name="IQRZ1" hidden="1">Sheet!$Z$2:$Z$42</definedName>
+    <definedName name="IQRA1" hidden="1">Sheet!$A$2:$A$82</definedName>
+    <definedName name="IQRAA1" hidden="1">Sheet!$AA$2:$AA$82</definedName>
+    <definedName name="IQRB1" hidden="1">Sheet!$B$2:$B$82</definedName>
+    <definedName name="IQRC1" hidden="1">Sheet!$C$2:$C$82</definedName>
+    <definedName name="IQRD1" hidden="1">Sheet!$D$2:$D$82</definedName>
+    <definedName name="IQRE1" hidden="1">Sheet!$E$2:$E$82</definedName>
+    <definedName name="IQRF1" hidden="1">Sheet!$F$2:$F$82</definedName>
+    <definedName name="IQRG1" hidden="1">Sheet!$G$2:$G$82</definedName>
+    <definedName name="IQRH1" hidden="1">Sheet!$H$2:$H$82</definedName>
+    <definedName name="IQRI1" hidden="1">Sheet!$I$2:$I$82</definedName>
+    <definedName name="IQRJ1" hidden="1">Sheet!$J$2:$J$82</definedName>
+    <definedName name="IQRK1" hidden="1">Sheet!$K$2:$K$82</definedName>
+    <definedName name="IQRL1" hidden="1">Sheet!$L$2:$L$82</definedName>
+    <definedName name="IQRM1" hidden="1">Sheet!$M$2:$M$82</definedName>
+    <definedName name="IQRN1" hidden="1">Sheet!$N$2:$N$82</definedName>
+    <definedName name="IQRO1" hidden="1">Sheet!$O$2:$O$82</definedName>
+    <definedName name="IQRP1" hidden="1">Sheet!$P$2:$P$82</definedName>
+    <definedName name="IQRQ1" hidden="1">Sheet!$Q$2:$Q$82</definedName>
+    <definedName name="IQRR1" hidden="1">Sheet!$R$2:$R$82</definedName>
+    <definedName name="IQRS1" hidden="1">Sheet!$S$2:$S$82</definedName>
+    <definedName name="IQRT1" hidden="1">Sheet!$T$2:$T$82</definedName>
+    <definedName name="IQRU1" hidden="1">Sheet!$U$2:$U$82</definedName>
+    <definedName name="IQRV1" hidden="1">Sheet!$V$2:$V$82</definedName>
+    <definedName name="IQRW1" hidden="1">Sheet!$W$2:$W$82</definedName>
+    <definedName name="IQRX1" hidden="1">Sheet!$X$2:$X$82</definedName>
+    <definedName name="IQRY1" hidden="1">Sheet!$Y$2:$Y$82</definedName>
+    <definedName name="IQRZ1" hidden="1">Sheet!$Z$2:$Z$82</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -92,7 +92,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="68">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="108" uniqueCount="108">
   <si>
     <t>Date</t>
   </si>
@@ -173,6 +173,126 @@
   </si>
   <si>
     <t>IQ_NI</t>
+  </si>
+  <si>
+    <t>FQ42000</t>
+  </si>
+  <si>
+    <t>FQ12001</t>
+  </si>
+  <si>
+    <t>FQ22001</t>
+  </si>
+  <si>
+    <t>FQ32001</t>
+  </si>
+  <si>
+    <t>FQ42001</t>
+  </si>
+  <si>
+    <t>FQ12002</t>
+  </si>
+  <si>
+    <t>FQ22002</t>
+  </si>
+  <si>
+    <t>FQ32002</t>
+  </si>
+  <si>
+    <t>FQ42002</t>
+  </si>
+  <si>
+    <t>FQ12003</t>
+  </si>
+  <si>
+    <t>FQ22003</t>
+  </si>
+  <si>
+    <t>FQ32003</t>
+  </si>
+  <si>
+    <t>FQ42003</t>
+  </si>
+  <si>
+    <t>FQ12004</t>
+  </si>
+  <si>
+    <t>FQ22004</t>
+  </si>
+  <si>
+    <t>FQ32004</t>
+  </si>
+  <si>
+    <t>FQ42004</t>
+  </si>
+  <si>
+    <t>FQ12005</t>
+  </si>
+  <si>
+    <t>FQ22005</t>
+  </si>
+  <si>
+    <t>FQ32005</t>
+  </si>
+  <si>
+    <t>FQ42005</t>
+  </si>
+  <si>
+    <t>FQ12006</t>
+  </si>
+  <si>
+    <t>FQ22006</t>
+  </si>
+  <si>
+    <t>FQ32006</t>
+  </si>
+  <si>
+    <t>FQ42006</t>
+  </si>
+  <si>
+    <t>FQ12007</t>
+  </si>
+  <si>
+    <t>FQ22007</t>
+  </si>
+  <si>
+    <t>FQ32007</t>
+  </si>
+  <si>
+    <t>FQ42007</t>
+  </si>
+  <si>
+    <t>FQ12008</t>
+  </si>
+  <si>
+    <t>FQ22008</t>
+  </si>
+  <si>
+    <t>FQ32008</t>
+  </si>
+  <si>
+    <t>FQ42008</t>
+  </si>
+  <si>
+    <t>FQ12009</t>
+  </si>
+  <si>
+    <t>FQ22009</t>
+  </si>
+  <si>
+    <t>FQ32009</t>
+  </si>
+  <si>
+    <t>FQ42009</t>
+  </si>
+  <si>
+    <t>FQ12010</t>
+  </si>
+  <si>
+    <t>FQ22010</t>
+  </si>
+  <si>
+    <t>FQ32010</t>
   </si>
   <si>
     <t>FQ42010</t>
@@ -639,7 +759,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AA42"/>
+  <dimension ref="A1:AA82"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -733,37 +853,37 @@
     </row>
     <row r="2" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A2" s="1">
-        <v>40543</v>
+        <v>36891</v>
       </c>
       <c r="B2" t="s">
         <v>27</v>
       </c>
       <c r="C2">
-        <v>0</v>
+        <v>45.337000000000003</v>
       </c>
       <c r="D2">
-        <v>0</v>
+        <v>2678.837</v>
       </c>
       <c r="E2">
-        <v>1283.8910000000001</v>
+        <v>1627.7139999999999</v>
       </c>
       <c r="F2">
-        <v>0</v>
+        <v>188.10300000000001</v>
       </c>
       <c r="G2">
-        <v>2379.7350000000001</v>
+        <v>3324.9589999999998</v>
       </c>
       <c r="H2">
-        <v>12499.174999999999</v>
+        <v>7360.3450000000003</v>
       </c>
       <c r="I2">
-        <v>1212.3230000000001</v>
+        <v>1247.519</v>
       </c>
       <c r="J2">
-        <v>3686.5419999999999</v>
+        <v>1336.0820000000001</v>
       </c>
       <c r="K2">
-        <v>556.85500000000002</v>
+        <v>824.10599999999999</v>
       </c>
       <c r="L2">
         <v>0</v>
@@ -772,164 +892,164 @@
         <v>0</v>
       </c>
       <c r="N2">
-        <v>3151.431</v>
+        <v>3526.5610000000001</v>
       </c>
       <c r="O2">
-        <v>8578.3340000000007</v>
+        <v>6135.3879999999999</v>
       </c>
       <c r="P2">
-        <v>4886.6329999999998</v>
+        <v>2308.0859999999998</v>
       </c>
       <c r="Q2">
-        <v>0</v>
+        <v>0.112</v>
       </c>
       <c r="R2">
-        <v>40543</v>
+        <v>36891</v>
       </c>
       <c r="S2">
-        <v>4839</v>
+        <v>3664</v>
       </c>
       <c r="T2">
-        <v>3920.8409999999999</v>
+        <v>1224.9570000000001</v>
       </c>
       <c r="U2">
-        <v>30.341000000000001</v>
+        <v>0.249</v>
       </c>
       <c r="V2">
-        <v>0</v>
+        <v>-271.62799999999999</v>
       </c>
       <c r="W2">
-        <v>0</v>
+        <v>-15.497</v>
       </c>
       <c r="X2">
-        <v>0</v>
+        <v>399.49200000000002</v>
       </c>
       <c r="Y2">
-        <v>0</v>
+        <v>137.131</v>
       </c>
       <c r="Z2">
-        <v>0</v>
+        <v>0.17899999999999999</v>
       </c>
       <c r="AA2">
-        <v>0</v>
+        <v>45.337000000000003</v>
       </c>
     </row>
     <row r="3" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A3" s="1">
-        <v>40633</v>
+        <v>36981</v>
       </c>
       <c r="B3" t="s">
         <v>28</v>
       </c>
       <c r="C3">
-        <v>130.13</v>
+        <v>64.858999999999995</v>
       </c>
       <c r="D3">
-        <v>3760.6</v>
+        <v>2956.924</v>
       </c>
       <c r="E3">
-        <v>1280.125</v>
+        <v>1354.7719999999999</v>
       </c>
       <c r="F3">
-        <v>629.87699999999995</v>
+        <v>290.86099999999999</v>
       </c>
       <c r="G3">
-        <v>2795.7739999999999</v>
+        <v>2271.4169999999999</v>
       </c>
       <c r="H3">
-        <v>13039.596</v>
+        <v>6293.2150000000001</v>
       </c>
       <c r="I3">
-        <v>1131.922</v>
+        <v>1062.885</v>
       </c>
       <c r="J3">
-        <v>4976.4579999999996</v>
+        <v>1864.06</v>
       </c>
       <c r="K3">
-        <v>0</v>
+        <v>189.55799999999999</v>
       </c>
       <c r="L3">
-        <v>-556.85500000000002</v>
+        <v>-252.768</v>
       </c>
       <c r="M3">
-        <v>-228.137</v>
+        <v>-1.5680000000000001</v>
       </c>
       <c r="N3">
-        <v>2301.6480000000001</v>
+        <v>2091.6439999999998</v>
       </c>
       <c r="O3">
-        <v>9082.5779999999995</v>
+        <v>5024.8540000000003</v>
       </c>
       <c r="P3">
-        <v>5394.7</v>
+        <v>2063.6179999999999</v>
       </c>
       <c r="Q3">
-        <v>846.23099999999999</v>
+        <v>0</v>
       </c>
       <c r="R3">
-        <v>40633</v>
+        <v>36981</v>
       </c>
       <c r="S3">
         <v>0</v>
       </c>
       <c r="T3">
-        <v>3957.018</v>
+        <v>1268.3610000000001</v>
       </c>
       <c r="U3">
-        <v>870.08600000000001</v>
+        <v>0.249</v>
       </c>
       <c r="V3">
-        <v>654.96</v>
+        <v>359.411</v>
       </c>
       <c r="W3">
-        <v>-55.651000000000003</v>
+        <v>-18.431999999999999</v>
       </c>
       <c r="X3">
-        <v>380.75599999999997</v>
+        <v>-268.65699999999998</v>
       </c>
       <c r="Y3">
         <v>0</v>
       </c>
       <c r="Z3">
-        <v>4.6539999999999999</v>
+        <v>0.39900000000000002</v>
       </c>
       <c r="AA3">
-        <v>130.13</v>
+        <v>64.858999999999995</v>
       </c>
     </row>
     <row r="4" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A4" s="1">
-        <v>40724</v>
+        <v>37072</v>
       </c>
       <c r="B4" t="s">
         <v>29</v>
       </c>
       <c r="C4">
-        <v>55.142000000000003</v>
+        <v>23.608000000000001</v>
       </c>
       <c r="D4">
-        <v>3444.7979999999998</v>
+        <v>-1829.0609999999999</v>
       </c>
       <c r="E4">
-        <v>1125.338</v>
+        <v>671.41600000000005</v>
       </c>
       <c r="F4">
-        <v>518.83299999999997</v>
+        <v>220.95500000000001</v>
       </c>
       <c r="G4">
-        <v>2529.261</v>
+        <v>1801.2070000000001</v>
       </c>
       <c r="H4">
-        <v>13036.333000000001</v>
+        <v>5935.6970000000001</v>
       </c>
       <c r="I4">
-        <v>1194.1030000000001</v>
+        <v>527.05799999999999</v>
       </c>
       <c r="J4">
-        <v>4622.616</v>
+        <v>1622.885</v>
       </c>
       <c r="K4">
-        <v>526.63300000000004</v>
+        <v>433.35599999999999</v>
       </c>
       <c r="L4">
         <v>0</v>
@@ -938,81 +1058,81 @@
         <v>0</v>
       </c>
       <c r="N4">
-        <v>2840.6170000000002</v>
+        <v>1991.3209999999999</v>
       </c>
       <c r="O4">
-        <v>9338.6290000000008</v>
+        <v>4659.9080000000004</v>
       </c>
       <c r="P4">
-        <v>5517.4970000000003</v>
+        <v>2306.241</v>
       </c>
       <c r="Q4">
-        <v>-404.39299999999997</v>
+        <v>-7.0000000000000001E-3</v>
       </c>
       <c r="R4">
-        <v>40724</v>
+        <v>37072</v>
       </c>
       <c r="S4">
         <v>0</v>
       </c>
       <c r="T4">
-        <v>3697.7040000000002</v>
+        <v>1275.789</v>
       </c>
       <c r="U4">
-        <v>477.57299999999998</v>
+        <v>0.24199999999999999</v>
       </c>
       <c r="V4">
-        <v>215.93799999999999</v>
+        <v>-105.099</v>
       </c>
       <c r="W4">
-        <v>-55.704999999999998</v>
+        <v>-18.463999999999999</v>
       </c>
       <c r="X4">
-        <v>-300.92700000000002</v>
+        <v>186.82499999999999</v>
       </c>
       <c r="Y4">
         <v>0</v>
       </c>
       <c r="Z4">
-        <v>9.4410000000000007</v>
+        <v>8.5299999999999994</v>
       </c>
       <c r="AA4">
-        <v>55.142000000000003</v>
+        <v>23.608000000000001</v>
       </c>
     </row>
     <row r="5" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A5" s="1">
-        <v>40816</v>
+        <v>37164</v>
       </c>
       <c r="B5" t="s">
         <v>30</v>
       </c>
       <c r="C5">
-        <v>60.320999999999998</v>
+        <v>18.786999999999999</v>
       </c>
       <c r="D5">
-        <v>3529.3589999999999</v>
+        <v>379.96600000000001</v>
       </c>
       <c r="E5">
-        <v>1141.1320000000001</v>
+        <v>539.45600000000002</v>
       </c>
       <c r="F5">
-        <v>532.62400000000002</v>
+        <v>202.756</v>
       </c>
       <c r="G5">
-        <v>2312.0430000000001</v>
+        <v>1543.2909999999999</v>
       </c>
       <c r="H5">
-        <v>13171.124</v>
+        <v>5691.94</v>
       </c>
       <c r="I5">
-        <v>1241.633</v>
+        <v>363.00400000000002</v>
       </c>
       <c r="J5">
-        <v>4532.0529999999999</v>
+        <v>1639.404</v>
       </c>
       <c r="K5">
-        <v>650</v>
+        <v>545.33100000000002</v>
       </c>
       <c r="L5">
         <v>0</v>
@@ -1021,81 +1141,81 @@
         <v>0</v>
       </c>
       <c r="N5">
-        <v>2976.7640000000001</v>
+        <v>1773.1880000000001</v>
       </c>
       <c r="O5">
-        <v>9489.0640000000003</v>
+        <v>4409.509</v>
       </c>
       <c r="P5">
-        <v>5547.3059999999996</v>
+        <v>2434.7350000000001</v>
       </c>
       <c r="Q5">
-        <v>-322.56700000000001</v>
+        <v>-0.13600000000000001</v>
       </c>
       <c r="R5">
-        <v>40816</v>
+        <v>37164</v>
       </c>
       <c r="S5">
         <v>0</v>
       </c>
       <c r="T5">
-        <v>3682.06</v>
+        <v>1282.431</v>
       </c>
       <c r="U5">
-        <v>148.40700000000001</v>
+        <v>0.106</v>
       </c>
       <c r="V5">
-        <v>160.619</v>
+        <v>-32.079000000000001</v>
       </c>
       <c r="W5">
-        <v>-57.981000000000002</v>
+        <v>-18.474</v>
       </c>
       <c r="X5">
-        <v>-95.188000000000002</v>
+        <v>101.953</v>
       </c>
       <c r="Y5">
         <v>0</v>
       </c>
       <c r="Z5">
-        <v>-49.622999999999998</v>
+        <v>-0.748</v>
       </c>
       <c r="AA5">
-        <v>60.320999999999998</v>
+        <v>18.786999999999999</v>
       </c>
     </row>
     <row r="6" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A6" s="1">
-        <v>40908</v>
+        <v>37256</v>
       </c>
       <c r="B6" t="s">
         <v>31</v>
       </c>
       <c r="C6">
-        <v>115.001</v>
+        <v>0</v>
       </c>
       <c r="D6">
-        <v>4071.0369999999998</v>
+        <v>0</v>
       </c>
       <c r="E6">
-        <v>1339.933</v>
+        <v>658.46600000000001</v>
       </c>
       <c r="F6">
-        <v>699.02499999999998</v>
+        <v>0</v>
       </c>
       <c r="G6">
-        <v>2318.8119999999999</v>
+        <v>1542.7670000000001</v>
       </c>
       <c r="H6">
-        <v>13696.635</v>
+        <v>5853.3</v>
       </c>
       <c r="I6">
-        <v>1341.7180000000001</v>
+        <v>445.44299999999998</v>
       </c>
       <c r="J6">
-        <v>4529.5510000000004</v>
+        <v>1498.0119999999999</v>
       </c>
       <c r="K6">
-        <v>841.98199999999997</v>
+        <v>599.10599999999999</v>
       </c>
       <c r="L6">
         <v>0</v>
@@ -1104,164 +1224,164 @@
         <v>0</v>
       </c>
       <c r="N6">
-        <v>3246.1750000000002</v>
+        <v>1792.558</v>
       </c>
       <c r="O6">
-        <v>9896.9030000000002</v>
+        <v>4588.01</v>
       </c>
       <c r="P6">
-        <v>5735.924</v>
+        <v>2469.1289999999999</v>
       </c>
       <c r="Q6">
-        <v>-83.659000000000006</v>
+        <v>0</v>
       </c>
       <c r="R6">
-        <v>40908</v>
+        <v>37256</v>
       </c>
       <c r="S6">
-        <v>4795</v>
+        <v>3657</v>
       </c>
       <c r="T6">
-        <v>3799.732</v>
+        <v>1265.29</v>
       </c>
       <c r="U6">
-        <v>65.953000000000003</v>
+        <v>28.228999999999999</v>
       </c>
       <c r="V6">
-        <v>320.28899999999999</v>
+        <v>0</v>
       </c>
       <c r="W6">
-        <v>-57.683</v>
+        <v>0</v>
       </c>
       <c r="X6">
-        <v>70.790999999999997</v>
+        <v>0</v>
       </c>
       <c r="Y6">
-        <v>0</v>
+        <v>122.011</v>
       </c>
       <c r="Z6">
-        <v>-5.319</v>
+        <v>0</v>
       </c>
       <c r="AA6">
-        <v>115.001</v>
+        <v>0</v>
       </c>
     </row>
     <row r="7" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A7" s="1">
-        <v>40999</v>
+        <v>37346</v>
       </c>
       <c r="B7" t="s">
         <v>32</v>
       </c>
       <c r="C7">
-        <v>122.86499999999999</v>
+        <v>72.597999999999999</v>
       </c>
       <c r="D7">
-        <v>3414.6</v>
+        <v>620.50699999999995</v>
       </c>
       <c r="E7">
-        <v>1154.951</v>
+        <v>719.84199999999998</v>
       </c>
       <c r="F7">
-        <v>643.58699999999999</v>
+        <v>294.43599999999998</v>
       </c>
       <c r="G7">
-        <v>2609.2750000000001</v>
+        <v>1353.2249999999999</v>
       </c>
       <c r="H7">
-        <v>14252.075999999999</v>
+        <v>5527.1109999999999</v>
       </c>
       <c r="I7">
-        <v>1110.1079999999999</v>
+        <v>355.50599999999997</v>
       </c>
       <c r="J7">
-        <v>5225.8490000000002</v>
+        <v>1493.8989999999999</v>
       </c>
       <c r="K7">
-        <v>419.75700000000001</v>
+        <v>404.04500000000002</v>
       </c>
       <c r="L7">
-        <v>-422.22500000000002</v>
+        <v>-222.92</v>
       </c>
       <c r="M7">
-        <v>-3.0819999999999999</v>
+        <v>-0.58799999999999997</v>
       </c>
       <c r="N7">
-        <v>2600.3229999999999</v>
+        <v>1397.7249999999999</v>
       </c>
       <c r="O7">
-        <v>9872.6209999999992</v>
+        <v>4197.32</v>
       </c>
       <c r="P7">
-        <v>6010.0029999999997</v>
+        <v>2266.7150000000001</v>
       </c>
       <c r="Q7">
-        <v>715.23900000000003</v>
+        <v>122.476</v>
       </c>
       <c r="R7">
-        <v>40999</v>
+        <v>37346</v>
       </c>
       <c r="S7">
         <v>0</v>
       </c>
       <c r="T7">
-        <v>4379.4549999999999</v>
+        <v>1329.7909999999999</v>
       </c>
       <c r="U7">
-        <v>781.19200000000001</v>
+        <v>150.70500000000001</v>
       </c>
       <c r="V7">
-        <v>434.94400000000002</v>
+        <v>420.77100000000002</v>
       </c>
       <c r="W7">
-        <v>-63.375</v>
+        <v>-18.545000000000002</v>
       </c>
       <c r="X7">
-        <v>594.69399999999996</v>
+        <v>-240.29300000000001</v>
       </c>
       <c r="Y7">
-        <v>0</v>
+        <v>118.771</v>
       </c>
       <c r="Z7">
-        <v>1.4850000000000001</v>
+        <v>1.478</v>
       </c>
       <c r="AA7">
-        <v>122.86499999999999</v>
+        <v>72.597999999999999</v>
       </c>
     </row>
     <row r="8" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A8" s="1">
-        <v>41090</v>
+        <v>37437</v>
       </c>
       <c r="B8" t="s">
         <v>33</v>
       </c>
       <c r="C8">
-        <v>60.993000000000002</v>
+        <v>35.383000000000003</v>
       </c>
       <c r="D8">
-        <v>2529.2600000000002</v>
+        <v>433.351</v>
       </c>
       <c r="E8">
-        <v>793.84199999999998</v>
+        <v>561.75300000000004</v>
       </c>
       <c r="F8">
-        <v>548.96199999999999</v>
+        <v>238.637</v>
       </c>
       <c r="G8">
-        <v>1807.319</v>
+        <v>1505.2190000000001</v>
       </c>
       <c r="H8">
-        <v>13817.191000000001</v>
+        <v>5706.1310000000003</v>
       </c>
       <c r="I8">
-        <v>911.97699999999998</v>
+        <v>435.94</v>
       </c>
       <c r="J8">
-        <v>5224.6229999999996</v>
+        <v>1519.249</v>
       </c>
       <c r="K8">
-        <v>595.93100000000004</v>
+        <v>351.10599999999999</v>
       </c>
       <c r="L8">
         <v>0</v>
@@ -1270,81 +1390,81 @@
         <v>0</v>
       </c>
       <c r="N8">
-        <v>2256.6770000000001</v>
+        <v>1574.866</v>
       </c>
       <c r="O8">
-        <v>9611.2029999999995</v>
+        <v>4364.2</v>
       </c>
       <c r="P8">
-        <v>5832.8159999999998</v>
+        <v>1995.886</v>
       </c>
       <c r="Q8">
-        <v>-666.27200000000005</v>
+        <v>-106.92700000000001</v>
       </c>
       <c r="R8">
-        <v>41090</v>
+        <v>37437</v>
       </c>
       <c r="S8">
         <v>0</v>
       </c>
       <c r="T8">
-        <v>4205.9880000000003</v>
+        <v>1341.931</v>
       </c>
       <c r="U8">
-        <v>114.92</v>
+        <v>43.777999999999999</v>
       </c>
       <c r="V8">
-        <v>226.52500000000001</v>
+        <v>222.52099999999999</v>
       </c>
       <c r="W8">
-        <v>-63.396999999999998</v>
+        <v>-18.568000000000001</v>
       </c>
       <c r="X8">
-        <v>-468.745</v>
+        <v>-310.81900000000002</v>
       </c>
       <c r="Y8">
-        <v>0</v>
+        <v>115.53100000000001</v>
       </c>
       <c r="Z8">
-        <v>5.9829999999999997</v>
+        <v>57.851999999999997</v>
       </c>
       <c r="AA8">
-        <v>60.993000000000002</v>
+        <v>35.383000000000003</v>
       </c>
     </row>
     <row r="9" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A9" s="1">
-        <v>41182</v>
+        <v>37529</v>
       </c>
       <c r="B9" t="s">
         <v>34</v>
       </c>
       <c r="C9">
-        <v>65.218999999999994</v>
+        <v>20.719000000000001</v>
       </c>
       <c r="D9">
-        <v>3028.7750000000001</v>
+        <v>449.03699999999998</v>
       </c>
       <c r="E9">
-        <v>984.72400000000005</v>
+        <v>487.99799999999999</v>
       </c>
       <c r="F9">
-        <v>553.97199999999998</v>
+        <v>208.84200000000001</v>
       </c>
       <c r="G9">
-        <v>2956.03</v>
+        <v>1450.453</v>
       </c>
       <c r="H9">
-        <v>15364.307000000001</v>
+        <v>5693.8360000000002</v>
       </c>
       <c r="I9">
-        <v>1153.75</v>
+        <v>362.86900000000003</v>
       </c>
       <c r="J9">
-        <v>6517.4639999999999</v>
+        <v>1515.127</v>
       </c>
       <c r="K9">
-        <v>676.74699999999996</v>
+        <v>371.10599999999999</v>
       </c>
       <c r="L9">
         <v>0</v>
@@ -1353,81 +1473,81 @@
         <v>0</v>
       </c>
       <c r="N9">
-        <v>2439.1129999999998</v>
+        <v>1625.566</v>
       </c>
       <c r="O9">
-        <v>11188.748</v>
+        <v>4348.3130000000001</v>
       </c>
       <c r="P9">
-        <v>7205.3509999999997</v>
+        <v>2004.8579999999999</v>
       </c>
       <c r="Q9">
-        <v>863.90499999999997</v>
+        <v>-37.869</v>
       </c>
       <c r="R9">
-        <v>41182</v>
+        <v>37529</v>
       </c>
       <c r="S9">
         <v>0</v>
       </c>
       <c r="T9">
-        <v>4175.5590000000002</v>
+        <v>1345.5229999999999</v>
       </c>
       <c r="U9">
-        <v>978.82500000000005</v>
+        <v>5.9089999999999998</v>
       </c>
       <c r="V9">
-        <v>110.249</v>
+        <v>63.113</v>
       </c>
       <c r="W9">
-        <v>-67.671000000000006</v>
+        <v>-18.585999999999999</v>
       </c>
       <c r="X9">
-        <v>1213.789</v>
+        <v>-50.542999999999999</v>
       </c>
       <c r="Y9">
-        <v>0</v>
+        <v>112.291</v>
       </c>
       <c r="Z9">
-        <v>-2.996</v>
+        <v>0.21299999999999999</v>
       </c>
       <c r="AA9">
-        <v>65.218999999999994</v>
+        <v>20.719000000000001</v>
       </c>
     </row>
     <row r="10" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A10" s="1">
-        <v>41274</v>
+        <v>37621</v>
       </c>
       <c r="B10" t="s">
         <v>35</v>
       </c>
       <c r="C10">
-        <v>111.542</v>
+        <v>37.923999999999999</v>
       </c>
       <c r="D10">
-        <v>3659.924</v>
+        <v>601.38499999999999</v>
       </c>
       <c r="E10">
-        <v>1349.3710000000001</v>
+        <v>773.01700000000005</v>
       </c>
       <c r="F10">
-        <v>604.32000000000005</v>
+        <v>233.745</v>
       </c>
       <c r="G10">
-        <v>2764.66</v>
+        <v>1695.5160000000001</v>
       </c>
       <c r="H10">
-        <v>15855.275</v>
+        <v>5809.5940000000001</v>
       </c>
       <c r="I10">
-        <v>1333.489</v>
+        <v>672.15300000000002</v>
       </c>
       <c r="J10">
-        <v>6515.3720000000003</v>
+        <v>1511.1179999999999</v>
       </c>
       <c r="K10">
-        <v>817.17</v>
+        <v>265.5</v>
       </c>
       <c r="L10">
         <v>0</v>
@@ -1436,164 +1556,164 @@
         <v>0</v>
       </c>
       <c r="N10">
-        <v>2812.9940000000001</v>
+        <v>1789.576</v>
       </c>
       <c r="O10">
-        <v>11622.825000000001</v>
+        <v>4443.982</v>
       </c>
       <c r="P10">
-        <v>7343.3969999999999</v>
+        <v>1892.0029999999999</v>
       </c>
       <c r="Q10">
-        <v>-395.20699999999999</v>
+        <v>67.613</v>
       </c>
       <c r="R10">
-        <v>41274</v>
+        <v>37621</v>
       </c>
       <c r="S10">
-        <v>4859</v>
+        <v>3593</v>
       </c>
       <c r="T10">
-        <v>4232.45</v>
+        <v>1365.6120000000001</v>
       </c>
       <c r="U10">
-        <v>583.61800000000005</v>
+        <v>73.522000000000006</v>
       </c>
       <c r="V10">
-        <v>221.136</v>
+        <v>105.876</v>
       </c>
       <c r="W10">
-        <v>-67.525999999999996</v>
+        <v>-18.602</v>
       </c>
       <c r="X10">
-        <v>-0.72799999999999998</v>
+        <v>-90.117999999999995</v>
       </c>
       <c r="Y10">
-        <v>0</v>
+        <v>109.051</v>
       </c>
       <c r="Z10">
-        <v>5.8999999999999997E-2</v>
+        <v>-6.7000000000000004E-2</v>
       </c>
       <c r="AA10">
-        <v>111.542</v>
+        <v>37.923999999999999</v>
       </c>
     </row>
     <row r="11" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A11" s="1">
-        <v>41364</v>
+        <v>37711</v>
       </c>
       <c r="B11" t="s">
         <v>36</v>
       </c>
       <c r="C11">
-        <v>112.521</v>
+        <v>22.433</v>
       </c>
       <c r="D11">
-        <v>2517.9549999999999</v>
+        <v>1086.71</v>
       </c>
       <c r="E11">
-        <v>1261.8040000000001</v>
+        <v>1256.5519999999999</v>
       </c>
       <c r="F11">
-        <v>371.10700000000003</v>
+        <v>402.952</v>
       </c>
       <c r="G11">
-        <v>1949.663</v>
+        <v>1914.741</v>
       </c>
       <c r="H11">
-        <v>15446.218999999999</v>
+        <v>5990.1260000000002</v>
       </c>
       <c r="I11">
-        <v>1205.248</v>
+        <v>1189.6890000000001</v>
       </c>
       <c r="J11">
-        <v>6513.3270000000002</v>
+        <v>1897.0250000000001</v>
       </c>
       <c r="K11">
-        <v>551.25</v>
+        <v>0</v>
       </c>
       <c r="L11">
-        <v>-265.92</v>
+        <v>0</v>
       </c>
       <c r="M11">
-        <v>-1.9750000000000001</v>
+        <v>-280.93</v>
       </c>
       <c r="N11">
-        <v>2337.0250000000001</v>
+        <v>1794.1210000000001</v>
       </c>
       <c r="O11">
-        <v>11242.085999999999</v>
+        <v>4758.5450000000001</v>
       </c>
       <c r="P11">
-        <v>7075.348</v>
+        <v>2013.885</v>
       </c>
       <c r="Q11">
-        <v>-442.04300000000001</v>
+        <v>209.46600000000001</v>
       </c>
       <c r="R11">
-        <v>41364</v>
+        <v>37711</v>
       </c>
       <c r="S11">
         <v>0</v>
       </c>
       <c r="T11">
-        <v>4204.1329999999998</v>
+        <v>1231.5809999999999</v>
       </c>
       <c r="U11">
-        <v>143.947</v>
+        <v>282.988</v>
       </c>
       <c r="V11">
-        <v>469.12599999999998</v>
+        <v>341.238</v>
       </c>
       <c r="W11">
-        <v>-73.781000000000006</v>
+        <v>-20.297999999999998</v>
       </c>
       <c r="X11">
-        <v>-416.36200000000002</v>
+        <v>40.32</v>
       </c>
       <c r="Y11">
-        <v>0</v>
+        <v>110.526</v>
       </c>
       <c r="Z11">
-        <v>3.6619999999999999</v>
+        <v>0.72199999999999998</v>
       </c>
       <c r="AA11">
-        <v>112.521</v>
+        <v>22.433</v>
       </c>
     </row>
     <row r="12" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A12" s="1">
-        <v>41455</v>
+        <v>37802</v>
       </c>
       <c r="B12" t="s">
         <v>37</v>
       </c>
       <c r="C12">
-        <v>0.91900000000000004</v>
+        <v>22.547999999999998</v>
       </c>
       <c r="D12">
-        <v>2768.9839999999999</v>
+        <v>494.988</v>
       </c>
       <c r="E12">
-        <v>1158.7380000000001</v>
+        <v>666.21799999999996</v>
       </c>
       <c r="F12">
-        <v>412.75799999999998</v>
+        <v>232.43600000000001</v>
       </c>
       <c r="G12">
-        <v>1889.5889999999999</v>
+        <v>1457.48</v>
       </c>
       <c r="H12">
-        <v>15842.273999999999</v>
+        <v>5618.6750000000002</v>
       </c>
       <c r="I12">
-        <v>1214.3219999999999</v>
+        <v>763.48599999999999</v>
       </c>
       <c r="J12">
-        <v>6511.3590000000004</v>
+        <v>1913.421</v>
       </c>
       <c r="K12">
-        <v>834</v>
+        <v>0</v>
       </c>
       <c r="L12">
         <v>0</v>
@@ -1602,81 +1722,81 @@
         <v>0</v>
       </c>
       <c r="N12">
-        <v>2648.779</v>
+        <v>1363.7729999999999</v>
       </c>
       <c r="O12">
-        <v>11667.918</v>
+        <v>4384.0780000000004</v>
       </c>
       <c r="P12">
-        <v>7356.0439999999999</v>
+        <v>2027.0409999999999</v>
       </c>
       <c r="Q12">
-        <v>-107.64700000000001</v>
+        <v>-124.995</v>
       </c>
       <c r="R12">
-        <v>41455</v>
+        <v>37802</v>
       </c>
       <c r="S12">
         <v>0</v>
       </c>
       <c r="T12">
-        <v>4174.3559999999998</v>
+        <v>1234.597</v>
       </c>
       <c r="U12">
-        <v>33.680999999999997</v>
+        <v>157.99299999999999</v>
       </c>
       <c r="V12">
-        <v>319.40199999999999</v>
+        <v>-37.634</v>
       </c>
       <c r="W12">
-        <v>-74.200999999999993</v>
+        <v>-14.382</v>
       </c>
       <c r="X12">
-        <v>121.744</v>
+        <v>-23.434999999999999</v>
       </c>
       <c r="Y12">
-        <v>0</v>
+        <v>107.286</v>
       </c>
       <c r="Z12">
-        <v>9.7379999999999995</v>
+        <v>-1.4E-2</v>
       </c>
       <c r="AA12">
-        <v>0.91900000000000004</v>
+        <v>22.547999999999998</v>
       </c>
     </row>
     <row r="13" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A13" s="1">
-        <v>41547</v>
+        <v>37894</v>
       </c>
       <c r="B13" t="s">
         <v>38</v>
       </c>
       <c r="C13">
-        <v>62.356000000000002</v>
+        <v>4.5949999999999998</v>
       </c>
       <c r="D13">
-        <v>3135.3809999999999</v>
+        <v>568.27</v>
       </c>
       <c r="E13">
-        <v>1166.9939999999999</v>
+        <v>601.93100000000004</v>
       </c>
       <c r="F13">
-        <v>424.22199999999998</v>
+        <v>194.38200000000001</v>
       </c>
       <c r="G13">
-        <v>2882.0239999999999</v>
+        <v>1414.7049999999999</v>
       </c>
       <c r="H13">
-        <v>17610.343000000001</v>
+        <v>5549.491</v>
       </c>
       <c r="I13">
-        <v>1382.7850000000001</v>
+        <v>650.00300000000004</v>
       </c>
       <c r="J13">
-        <v>7757.1589999999997</v>
+        <v>1894.096</v>
       </c>
       <c r="K13">
-        <v>562.32899999999995</v>
+        <v>167</v>
       </c>
       <c r="L13">
         <v>0</v>
@@ -1685,81 +1805,81 @@
         <v>0</v>
       </c>
       <c r="N13">
-        <v>2621.71</v>
+        <v>1374.885</v>
       </c>
       <c r="O13">
-        <v>12919.697</v>
+        <v>4348.72</v>
       </c>
       <c r="P13">
-        <v>8330.1440000000002</v>
+        <v>2171.4760000000001</v>
       </c>
       <c r="Q13">
-        <v>746.95399999999995</v>
+        <v>-145.87799999999999</v>
       </c>
       <c r="R13">
-        <v>41547</v>
+        <v>37894</v>
       </c>
       <c r="S13">
         <v>0</v>
       </c>
       <c r="T13">
-        <v>4690.6459999999997</v>
+        <v>1200.771</v>
       </c>
       <c r="U13">
-        <v>779.524</v>
+        <v>12.115</v>
       </c>
       <c r="V13">
-        <v>234.376</v>
+        <v>-168.62899999999999</v>
       </c>
       <c r="W13">
-        <v>-78.367000000000004</v>
+        <v>-17.73</v>
       </c>
       <c r="X13">
-        <v>1349.6690000000001</v>
+        <v>94.944999999999993</v>
       </c>
       <c r="Y13">
-        <v>0</v>
+        <v>104.04600000000001</v>
       </c>
       <c r="Z13">
-        <v>6.9329999999999998</v>
+        <v>0.45900000000000002</v>
       </c>
       <c r="AA13">
-        <v>62.356000000000002</v>
+        <v>4.5949999999999998</v>
       </c>
     </row>
     <row r="14" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A14" s="1">
-        <v>41639</v>
+        <v>37986</v>
       </c>
       <c r="B14" t="s">
         <v>39</v>
       </c>
       <c r="C14">
-        <v>90.736999999999995</v>
+        <v>62.911999999999999</v>
       </c>
       <c r="D14">
-        <v>3449.5590000000002</v>
+        <v>849.02800000000002</v>
       </c>
       <c r="E14">
-        <v>1109.51</v>
+        <v>970.14099999999996</v>
       </c>
       <c r="F14">
-        <v>441.57900000000001</v>
+        <v>306.70800000000003</v>
       </c>
       <c r="G14">
-        <v>2404.7240000000002</v>
+        <v>1823.335</v>
       </c>
       <c r="H14">
-        <v>17741.481</v>
+        <v>6211.8860000000004</v>
       </c>
       <c r="I14">
-        <v>1273.1020000000001</v>
+        <v>813.89499999999998</v>
       </c>
       <c r="J14">
-        <v>7753.6570000000002</v>
+        <v>1878.2639999999999</v>
       </c>
       <c r="K14">
-        <v>564.46199999999999</v>
+        <v>600</v>
       </c>
       <c r="L14">
         <v>0</v>
@@ -1768,164 +1888,164 @@
         <v>0</v>
       </c>
       <c r="N14">
-        <v>2730.33</v>
+        <v>2024.777</v>
       </c>
       <c r="O14">
-        <v>12896.300999999999</v>
+        <v>4970.4939999999997</v>
       </c>
       <c r="P14">
-        <v>8328.7690000000002</v>
+        <v>2584.89</v>
       </c>
       <c r="Q14">
-        <v>-628.721</v>
+        <v>5.7000000000000002E-2</v>
       </c>
       <c r="R14">
-        <v>41639</v>
+        <v>37986</v>
       </c>
       <c r="S14">
-        <v>1927</v>
+        <v>4342</v>
       </c>
       <c r="T14">
-        <v>4845.18</v>
+        <v>1241.3920000000001</v>
       </c>
       <c r="U14">
-        <v>145.565</v>
+        <v>12.172000000000001</v>
       </c>
       <c r="V14">
-        <v>274.71100000000001</v>
+        <v>-134.249</v>
       </c>
       <c r="W14">
-        <v>-78.393000000000001</v>
+        <v>0</v>
       </c>
       <c r="X14">
-        <v>-142.09200000000001</v>
+        <v>445.28199999999998</v>
       </c>
       <c r="Y14">
-        <v>0</v>
+        <v>100.292</v>
       </c>
       <c r="Z14">
-        <v>-24.507000000000001</v>
+        <v>-2.2930000000000001</v>
       </c>
       <c r="AA14">
-        <v>90.736999999999995</v>
+        <v>62.911999999999999</v>
       </c>
     </row>
     <row r="15" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A15" s="1">
-        <v>41729</v>
+        <v>38077</v>
       </c>
       <c r="B15" t="s">
         <v>40</v>
       </c>
       <c r="C15">
-        <v>93.515000000000001</v>
+        <v>105.15300000000001</v>
       </c>
       <c r="D15">
-        <v>3163.2959999999998</v>
+        <v>1030.575</v>
       </c>
       <c r="E15">
-        <v>883.673</v>
+        <v>944.34100000000001</v>
       </c>
       <c r="F15">
-        <v>510.62700000000001</v>
+        <v>392.75799999999998</v>
       </c>
       <c r="G15">
-        <v>1656.327</v>
+        <v>1503.96</v>
       </c>
       <c r="H15">
-        <v>13653.134</v>
+        <v>5957.9080000000004</v>
       </c>
       <c r="I15">
-        <v>1155.114</v>
+        <v>820.36</v>
       </c>
       <c r="J15">
-        <v>7199.0290000000005</v>
+        <v>1571.068</v>
       </c>
       <c r="K15">
-        <v>125</v>
+        <v>0</v>
       </c>
       <c r="L15">
-        <v>-439.46199999999999</v>
+        <v>0</v>
       </c>
       <c r="M15">
-        <v>-551.93299999999999</v>
+        <v>-600.27</v>
       </c>
       <c r="N15">
-        <v>1891.7239999999999</v>
+        <v>1765.8910000000001</v>
       </c>
       <c r="O15">
-        <v>10525.427</v>
+        <v>4474.1859999999997</v>
       </c>
       <c r="P15">
-        <v>7339.2529999999997</v>
+        <v>2009.325</v>
       </c>
       <c r="Q15">
-        <v>64.662000000000006</v>
+        <v>10.065</v>
       </c>
       <c r="R15">
-        <v>41729</v>
+        <v>38077</v>
       </c>
       <c r="S15">
         <v>0</v>
       </c>
       <c r="T15">
-        <v>3127.7069999999999</v>
+        <v>1483.722</v>
       </c>
       <c r="U15">
-        <v>210.227</v>
+        <v>22.236999999999998</v>
       </c>
       <c r="V15">
-        <v>494.13099999999997</v>
+        <v>449.78199999999998</v>
       </c>
       <c r="W15">
-        <v>-83.275000000000006</v>
+        <v>-18.109000000000002</v>
       </c>
       <c r="X15">
-        <v>9.8650000000000002</v>
+        <v>-399.14299999999997</v>
       </c>
       <c r="Y15">
-        <v>0</v>
+        <v>96.923000000000002</v>
       </c>
       <c r="Z15">
-        <v>4.0979999999999999</v>
+        <v>-8.2000000000000003E-2</v>
       </c>
       <c r="AA15">
-        <v>93.515000000000001</v>
+        <v>105.15300000000001</v>
       </c>
     </row>
     <row r="16" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A16" s="1">
-        <v>41820</v>
+        <v>38168</v>
       </c>
       <c r="B16" t="s">
         <v>41</v>
       </c>
       <c r="C16">
-        <v>61.59</v>
+        <v>0</v>
       </c>
       <c r="D16">
-        <v>3066.8820000000001</v>
+        <v>0</v>
       </c>
       <c r="E16">
-        <v>1097.008</v>
+        <v>815.65700000000004</v>
       </c>
       <c r="F16">
-        <v>495.48</v>
+        <v>0</v>
       </c>
       <c r="G16">
-        <v>2059.6550000000002</v>
+        <v>1587.7170000000001</v>
       </c>
       <c r="H16">
-        <v>14384.538</v>
+        <v>6068.8549999999996</v>
       </c>
       <c r="I16">
-        <v>1271.539</v>
+        <v>882.77300000000002</v>
       </c>
       <c r="J16">
-        <v>7196.9880000000003</v>
+        <v>1525.9880000000001</v>
       </c>
       <c r="K16">
-        <v>0</v>
+        <v>40</v>
       </c>
       <c r="L16">
         <v>0</v>
@@ -1934,81 +2054,81 @@
         <v>0</v>
       </c>
       <c r="N16">
-        <v>1851.171</v>
+        <v>1875.665</v>
       </c>
       <c r="O16">
-        <v>10591.207</v>
+        <v>4612.4690000000001</v>
       </c>
       <c r="P16">
-        <v>7226.8779999999997</v>
+        <v>2000.877</v>
       </c>
       <c r="Q16">
-        <v>148.333</v>
+        <v>0</v>
       </c>
       <c r="R16">
-        <v>41820</v>
+        <v>38168</v>
       </c>
       <c r="S16">
         <v>0</v>
       </c>
       <c r="T16">
-        <v>3793.3310000000001</v>
+        <v>1456.386</v>
       </c>
       <c r="U16">
-        <v>358.56</v>
+        <v>18.96</v>
       </c>
       <c r="V16">
-        <v>45.441000000000003</v>
+        <v>0</v>
       </c>
       <c r="W16">
-        <v>-116.40900000000001</v>
+        <v>0</v>
       </c>
       <c r="X16">
-        <v>484.05399999999997</v>
+        <v>0</v>
       </c>
       <c r="Y16">
-        <v>0</v>
+        <v>93.555000000000007</v>
       </c>
       <c r="Z16">
-        <v>11.288</v>
+        <v>0</v>
       </c>
       <c r="AA16">
-        <v>61.59</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A17" s="1">
-        <v>41912</v>
+        <v>38260</v>
       </c>
       <c r="B17" t="s">
         <v>42</v>
       </c>
       <c r="C17">
-        <v>64.457999999999998</v>
+        <v>20.838999999999999</v>
       </c>
       <c r="D17">
-        <v>3120.145</v>
+        <v>1664.4110000000001</v>
       </c>
       <c r="E17">
-        <v>971.28499999999997</v>
+        <v>696.90700000000004</v>
       </c>
       <c r="F17">
-        <v>536.94100000000003</v>
+        <v>219.846</v>
       </c>
       <c r="G17">
-        <v>1712.787</v>
+        <v>1942.5809999999999</v>
       </c>
       <c r="H17">
-        <v>14312.196</v>
+        <v>6424.3360000000002</v>
       </c>
       <c r="I17">
-        <v>1221.934</v>
+        <v>775.07799999999997</v>
       </c>
       <c r="J17">
-        <v>7194.9570000000003</v>
+        <v>1549.232</v>
       </c>
       <c r="K17">
-        <v>0</v>
+        <v>298</v>
       </c>
       <c r="L17">
         <v>0</v>
@@ -2017,81 +2137,81 @@
         <v>0</v>
       </c>
       <c r="N17">
-        <v>1781.9010000000001</v>
+        <v>2321.0459999999998</v>
       </c>
       <c r="O17">
-        <v>10552.800999999999</v>
+        <v>5024.9480000000003</v>
       </c>
       <c r="P17">
-        <v>7228.915</v>
+        <v>2278.752</v>
       </c>
       <c r="Q17">
-        <v>-207.15700000000001</v>
+        <v>-1.2010000000000001</v>
       </c>
       <c r="R17">
-        <v>41912</v>
+        <v>38260</v>
       </c>
       <c r="S17">
         <v>0</v>
       </c>
       <c r="T17">
-        <v>3759.395</v>
+        <v>1399.3879999999999</v>
       </c>
       <c r="U17">
-        <v>151.40299999999999</v>
+        <v>17.759</v>
       </c>
       <c r="V17">
-        <v>334.13</v>
+        <v>-190.751</v>
       </c>
       <c r="W17">
-        <v>-121.367</v>
+        <v>-23.617000000000001</v>
       </c>
       <c r="X17">
-        <v>-169.64699999999999</v>
+        <v>261.54199999999997</v>
       </c>
       <c r="Y17">
-        <v>0</v>
+        <v>90.186000000000007</v>
       </c>
       <c r="Z17">
-        <v>8.4760000000000009</v>
+        <v>-0.27800000000000002</v>
       </c>
       <c r="AA17">
-        <v>64.457999999999998</v>
+        <v>20.838999999999999</v>
       </c>
     </row>
     <row r="18" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A18" s="1">
-        <v>42004</v>
+        <v>38352</v>
       </c>
       <c r="B18" t="s">
         <v>43</v>
       </c>
       <c r="C18">
-        <v>94.543999999999997</v>
+        <v>98.397000000000006</v>
       </c>
       <c r="D18">
-        <v>2844.768</v>
+        <v>2543.83</v>
       </c>
       <c r="E18">
-        <v>745.49400000000003</v>
+        <v>1412.8610000000001</v>
       </c>
       <c r="F18">
-        <v>563.495</v>
+        <v>346.87799999999999</v>
       </c>
       <c r="G18">
-        <v>1307.2439999999999</v>
+        <v>2494.4520000000002</v>
       </c>
       <c r="H18">
-        <v>15261.772999999999</v>
+        <v>7199.152</v>
       </c>
       <c r="I18">
-        <v>891.41300000000001</v>
+        <v>1161.9839999999999</v>
       </c>
       <c r="J18">
-        <v>7150.1419999999998</v>
+        <v>1543.202</v>
       </c>
       <c r="K18">
-        <v>1055.296</v>
+        <v>644</v>
       </c>
       <c r="L18">
         <v>0</v>
@@ -2100,164 +2220,164 @@
         <v>0</v>
       </c>
       <c r="N18">
-        <v>2392.3449999999998</v>
+        <v>2888.7950000000001</v>
       </c>
       <c r="O18">
-        <v>11255.89</v>
+        <v>5593.4480000000003</v>
       </c>
       <c r="P18">
-        <v>8260.9310000000005</v>
+        <v>2528.7339999999999</v>
       </c>
       <c r="Q18">
-        <v>21.408999999999999</v>
+        <v>-8.3010000000000002</v>
       </c>
       <c r="R18">
-        <v>42004</v>
+        <v>38352</v>
       </c>
       <c r="S18">
-        <v>2269</v>
+        <v>4627</v>
       </c>
       <c r="T18">
-        <v>4005.8829999999998</v>
+        <v>1605.704</v>
       </c>
       <c r="U18">
-        <v>172.81200000000001</v>
+        <v>9.4580000000000002</v>
       </c>
       <c r="V18">
-        <v>415.26900000000001</v>
+        <v>-81.296000000000006</v>
       </c>
       <c r="W18">
-        <v>-122.76600000000001</v>
+        <v>-25.855</v>
       </c>
       <c r="X18">
-        <v>980.22699999999998</v>
+        <v>318.81900000000002</v>
       </c>
       <c r="Y18">
         <v>0</v>
       </c>
       <c r="Z18">
-        <v>-3.8180000000000001</v>
+        <v>1.2809999999999999</v>
       </c>
       <c r="AA18">
-        <v>94.543999999999997</v>
+        <v>98.397000000000006</v>
       </c>
     </row>
     <row r="19" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A19" s="1">
-        <v>42094</v>
+        <v>38442</v>
       </c>
       <c r="B19" t="s">
         <v>44</v>
       </c>
       <c r="C19">
-        <v>60.8</v>
+        <v>107.664</v>
       </c>
       <c r="D19">
-        <v>1805.306</v>
+        <v>2707.04</v>
       </c>
       <c r="E19">
-        <v>628.06399999999996</v>
+        <v>1262.96</v>
       </c>
       <c r="F19">
-        <v>461.44200000000001</v>
+        <v>370.39699999999999</v>
       </c>
       <c r="G19">
-        <v>1321.9490000000001</v>
+        <v>2181.2460000000001</v>
       </c>
       <c r="H19">
-        <v>15533.073</v>
+        <v>6849.9189999999999</v>
       </c>
       <c r="I19">
-        <v>721.53499999999997</v>
+        <v>1088.8309999999999</v>
       </c>
       <c r="J19">
-        <v>7339.7659999999996</v>
+        <v>1528.7080000000001</v>
       </c>
       <c r="K19">
-        <v>825.47500000000002</v>
+        <v>688.5</v>
       </c>
       <c r="L19">
-        <v>-229.821</v>
+        <v>0</v>
       </c>
       <c r="M19">
-        <v>-1.948</v>
+        <v>-335.32400000000001</v>
       </c>
       <c r="N19">
-        <v>2548.7199999999998</v>
+        <v>2637.502</v>
       </c>
       <c r="O19">
-        <v>11639.785</v>
+        <v>5277.7860000000001</v>
       </c>
       <c r="P19">
-        <v>8835.8379999999997</v>
+        <v>2307.192</v>
       </c>
       <c r="Q19">
-        <v>66.599000000000004</v>
+        <v>26.036999999999999</v>
       </c>
       <c r="R19">
-        <v>42094</v>
+        <v>38442</v>
       </c>
       <c r="S19">
         <v>0</v>
       </c>
       <c r="T19">
-        <v>3893.288</v>
+        <v>1572.133</v>
       </c>
       <c r="U19">
-        <v>239.411</v>
+        <v>35.494999999999997</v>
       </c>
       <c r="V19">
-        <v>39.423000000000002</v>
+        <v>519.596</v>
       </c>
       <c r="W19">
-        <v>-126.053</v>
+        <v>-26.021000000000001</v>
       </c>
       <c r="X19">
-        <v>360.95100000000002</v>
+        <v>-410.875</v>
       </c>
       <c r="Y19">
-        <v>0</v>
+        <v>83.448999999999998</v>
       </c>
       <c r="Z19">
-        <v>9.9540000000000006</v>
+        <v>-23.805</v>
       </c>
       <c r="AA19">
-        <v>60.8</v>
+        <v>107.664</v>
       </c>
     </row>
     <row r="20" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A20" s="1">
-        <v>42185</v>
+        <v>38533</v>
       </c>
       <c r="B20" t="s">
         <v>45</v>
       </c>
       <c r="C20">
-        <v>76.504999999999995</v>
+        <v>24.852</v>
       </c>
       <c r="D20">
-        <v>2128.0520000000001</v>
+        <v>2080.79</v>
       </c>
       <c r="E20">
-        <v>684.899</v>
+        <v>930.07399999999996</v>
       </c>
       <c r="F20">
-        <v>524.95899999999995</v>
+        <v>229.97800000000001</v>
       </c>
       <c r="G20">
-        <v>1263.796</v>
+        <v>2020.779</v>
       </c>
       <c r="H20">
-        <v>15651.18</v>
+        <v>6696.87</v>
       </c>
       <c r="I20">
-        <v>694.91399999999999</v>
+        <v>919.86800000000005</v>
       </c>
       <c r="J20">
-        <v>7291.4</v>
+        <v>2338.25</v>
       </c>
       <c r="K20">
-        <v>870.48400000000004</v>
+        <v>111.5</v>
       </c>
       <c r="L20">
         <v>0</v>
@@ -2266,81 +2386,81 @@
         <v>0</v>
       </c>
       <c r="N20">
-        <v>2606.5619999999999</v>
+        <v>1773.152</v>
       </c>
       <c r="O20">
-        <v>11651.821</v>
+        <v>5198.5</v>
       </c>
       <c r="P20">
-        <v>8822.5339999999997</v>
+        <v>2536.3690000000001</v>
       </c>
       <c r="Q20">
-        <v>-13.218</v>
+        <v>-18.891999999999999</v>
       </c>
       <c r="R20">
-        <v>42185</v>
+        <v>38533</v>
       </c>
       <c r="S20">
         <v>0</v>
       </c>
       <c r="T20">
-        <v>3999.3589999999999</v>
+        <v>1498.37</v>
       </c>
       <c r="U20">
-        <v>226.19300000000001</v>
+        <v>16.603000000000002</v>
       </c>
       <c r="V20">
-        <v>294.87900000000002</v>
+        <v>-96.55</v>
       </c>
       <c r="W20">
-        <v>-126.363</v>
+        <v>-28.555</v>
       </c>
       <c r="X20">
-        <v>13.9</v>
+        <v>150.989</v>
       </c>
       <c r="Y20">
-        <v>0</v>
+        <v>80.08</v>
       </c>
       <c r="Z20">
-        <v>-24.361999999999998</v>
+        <v>-6.9740000000000002</v>
       </c>
       <c r="AA20">
-        <v>76.504999999999995</v>
+        <v>24.852</v>
       </c>
     </row>
     <row r="21" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A21" s="1">
-        <v>42277</v>
+        <v>38625</v>
       </c>
       <c r="B21" t="s">
         <v>46</v>
       </c>
       <c r="C21">
-        <v>82.156999999999996</v>
+        <v>0</v>
       </c>
       <c r="D21">
-        <v>1898.9459999999999</v>
+        <v>3192.2069999999999</v>
       </c>
       <c r="E21">
-        <v>586.15700000000004</v>
+        <v>1471.9860000000001</v>
       </c>
       <c r="F21">
-        <v>538.13699999999994</v>
+        <v>329.31900000000002</v>
       </c>
       <c r="G21">
-        <v>952.79</v>
+        <v>4482.9589999999998</v>
       </c>
       <c r="H21">
-        <v>15508.298000000001</v>
+        <v>10362.455</v>
       </c>
       <c r="I21">
-        <v>620.56799999999998</v>
+        <v>1531.6959999999999</v>
       </c>
       <c r="J21">
-        <v>7773.7560000000003</v>
+        <v>2027.721</v>
       </c>
       <c r="K21">
-        <v>287.27199999999999</v>
+        <v>1202.5</v>
       </c>
       <c r="L21">
         <v>0</v>
@@ -2349,81 +2469,81 @@
         <v>0</v>
       </c>
       <c r="N21">
-        <v>1960.8209999999999</v>
+        <v>5087.76</v>
       </c>
       <c r="O21">
-        <v>11470.993</v>
+        <v>8976.9609999999993</v>
       </c>
       <c r="P21">
-        <v>8735.3259999999991</v>
+        <v>3613.4760000000001</v>
       </c>
       <c r="Q21">
-        <v>-187.822</v>
+        <v>0</v>
       </c>
       <c r="R21">
-        <v>42277</v>
+        <v>38625</v>
       </c>
       <c r="S21">
         <v>0</v>
       </c>
       <c r="T21">
-        <v>4037.3049999999998</v>
+        <v>1385.4939999999999</v>
       </c>
       <c r="U21">
-        <v>38.371000000000002</v>
+        <v>86.16</v>
       </c>
       <c r="V21">
-        <v>360.72300000000001</v>
+        <v>0</v>
       </c>
       <c r="W21">
-        <v>-128.08199999999999</v>
+        <v>0</v>
       </c>
       <c r="X21">
-        <v>-262.13600000000002</v>
+        <v>0</v>
       </c>
       <c r="Y21">
-        <v>0</v>
+        <v>76.712000000000003</v>
       </c>
       <c r="Z21">
-        <v>11.978999999999999</v>
+        <v>0</v>
       </c>
       <c r="AA21">
-        <v>82.156999999999996</v>
+        <v>176.387</v>
       </c>
     </row>
     <row r="22" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A22" s="1">
-        <v>42369</v>
+        <v>38717</v>
       </c>
       <c r="B22" t="s">
         <v>47</v>
       </c>
       <c r="C22">
-        <v>25.515000000000001</v>
+        <v>237.642</v>
       </c>
       <c r="D22">
-        <v>1930.902</v>
+        <v>4696.1930000000002</v>
       </c>
       <c r="E22">
-        <v>593.97900000000004</v>
+        <v>1961.2080000000001</v>
       </c>
       <c r="F22">
-        <v>597.61599999999999</v>
+        <v>408.46100000000001</v>
       </c>
       <c r="G22">
-        <v>975.21</v>
+        <v>3798.3879999999999</v>
       </c>
       <c r="H22">
-        <v>15446.111000000001</v>
+        <v>9311.7479999999996</v>
       </c>
       <c r="I22">
-        <v>615.98199999999997</v>
+        <v>1514.62</v>
       </c>
       <c r="J22">
-        <v>8323.5820000000003</v>
+        <v>2024.07</v>
       </c>
       <c r="K22">
-        <v>546.34</v>
+        <v>1541.5</v>
       </c>
       <c r="L22">
         <v>0</v>
@@ -2432,164 +2552,164 @@
         <v>0</v>
       </c>
       <c r="N22">
-        <v>1638.2660000000001</v>
+        <v>4187.9359999999997</v>
       </c>
       <c r="O22">
-        <v>11679.775</v>
+        <v>7516.991</v>
       </c>
       <c r="P22">
-        <v>8990.5079999999998</v>
+        <v>3572.116</v>
       </c>
       <c r="Q22">
-        <v>59.247999999999998</v>
+        <v>-78.245000000000005</v>
       </c>
       <c r="R22">
-        <v>42369</v>
+        <v>38717</v>
       </c>
       <c r="S22">
-        <v>2364</v>
+        <v>4558</v>
       </c>
       <c r="T22">
-        <v>3766.3359999999998</v>
+        <v>1794.7570000000001</v>
       </c>
       <c r="U22">
-        <v>97.619</v>
+        <v>7.915</v>
       </c>
       <c r="V22">
-        <v>311.91199999999998</v>
+        <v>-407.16699999999997</v>
       </c>
       <c r="W22">
-        <v>-128.69900000000001</v>
+        <v>-27.323</v>
       </c>
       <c r="X22">
-        <v>-4.1260000000000003</v>
+        <v>-24.359000000000002</v>
       </c>
       <c r="Y22">
         <v>0</v>
       </c>
       <c r="Z22">
-        <v>8.8040000000000003</v>
+        <v>-1.804</v>
       </c>
       <c r="AA22">
-        <v>25.515000000000001</v>
+        <v>237.642</v>
       </c>
     </row>
     <row r="23" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A23" s="1">
-        <v>42460</v>
+        <v>38807</v>
       </c>
       <c r="B23" t="s">
         <v>48</v>
       </c>
       <c r="C23">
-        <v>83.445999999999998</v>
+        <v>129.49199999999999</v>
       </c>
       <c r="D23">
-        <v>1774.4590000000001</v>
+        <v>3755.6410000000001</v>
       </c>
       <c r="E23">
-        <v>521.43600000000004</v>
+        <v>1501.6510000000001</v>
       </c>
       <c r="F23">
-        <v>578.721</v>
+        <v>501.28500000000003</v>
       </c>
       <c r="G23">
-        <v>991.02099999999996</v>
+        <v>2811.1959999999999</v>
       </c>
       <c r="H23">
-        <v>15501.148999999999</v>
+        <v>10731.432000000001</v>
       </c>
       <c r="I23">
-        <v>522.31700000000001</v>
+        <v>1308.421</v>
       </c>
       <c r="J23">
-        <v>8320.4509999999991</v>
+        <v>3104.0540000000001</v>
       </c>
       <c r="K23">
-        <v>444.56700000000001</v>
+        <v>745</v>
       </c>
       <c r="L23">
-        <v>-101.773</v>
+        <v>-1110</v>
       </c>
       <c r="M23">
-        <v>-652.14800000000002</v>
+        <v>-167.74100000000001</v>
       </c>
       <c r="N23">
-        <v>1764.46</v>
+        <v>3077.7069999999999</v>
       </c>
       <c r="O23">
-        <v>11855.642</v>
+        <v>7353.7139999999999</v>
       </c>
       <c r="P23">
-        <v>9225.6679999999997</v>
+        <v>3855.605</v>
       </c>
       <c r="Q23">
-        <v>39.6</v>
+        <v>14.555</v>
       </c>
       <c r="R23">
-        <v>42460</v>
+        <v>38807</v>
       </c>
       <c r="S23">
         <v>0</v>
       </c>
       <c r="T23">
-        <v>3645.5070000000001</v>
+        <v>3377.7179999999998</v>
       </c>
       <c r="U23">
-        <v>137.21899999999999</v>
+        <v>36.799999999999997</v>
       </c>
       <c r="V23">
-        <v>230.678</v>
+        <v>797.65</v>
       </c>
       <c r="W23">
-        <v>-129.23500000000001</v>
+        <v>-27.344000000000001</v>
       </c>
       <c r="X23">
-        <v>-21.131</v>
+        <v>-746.31899999999996</v>
       </c>
       <c r="Y23">
         <v>0</v>
       </c>
       <c r="Z23">
-        <v>11.606</v>
+        <v>-5.7110000000000003</v>
       </c>
       <c r="AA23">
-        <v>83.445999999999998</v>
+        <v>129.49199999999999</v>
       </c>
     </row>
     <row r="24" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A24" s="1">
-        <v>42551</v>
+        <v>38898</v>
       </c>
       <c r="B24" t="s">
         <v>49</v>
       </c>
       <c r="C24">
-        <v>85.944000000000003</v>
+        <v>77.795000000000002</v>
       </c>
       <c r="D24">
-        <v>2134.107</v>
+        <v>2446.1979999999999</v>
       </c>
       <c r="E24">
-        <v>672.05899999999997</v>
+        <v>971.85500000000002</v>
       </c>
       <c r="F24">
-        <v>606.78399999999999</v>
+        <v>399.92599999999999</v>
       </c>
       <c r="G24">
-        <v>1281.1880000000001</v>
+        <v>3224.3270000000002</v>
       </c>
       <c r="H24">
-        <v>15822.9</v>
+        <v>10176.103999999999</v>
       </c>
       <c r="I24">
-        <v>697.83299999999997</v>
+        <v>943.19399999999996</v>
       </c>
       <c r="J24">
-        <v>8320.277</v>
+        <v>2630.32</v>
       </c>
       <c r="K24">
-        <v>576.30700000000002</v>
+        <v>1364</v>
       </c>
       <c r="L24">
         <v>0</v>
@@ -2598,81 +2718,81 @@
         <v>0</v>
       </c>
       <c r="N24">
-        <v>2188.4209999999998</v>
+        <v>3322.0230000000001</v>
       </c>
       <c r="O24">
-        <v>12330.723</v>
+        <v>7007.7049999999999</v>
       </c>
       <c r="P24">
-        <v>9357.2340000000004</v>
+        <v>4012.8049999999998</v>
       </c>
       <c r="Q24">
-        <v>43.634999999999998</v>
+        <v>126.35299999999999</v>
       </c>
       <c r="R24">
-        <v>42551</v>
+        <v>38898</v>
       </c>
       <c r="S24">
         <v>0</v>
       </c>
       <c r="T24">
-        <v>3492.1770000000001</v>
+        <v>3168.3989999999999</v>
       </c>
       <c r="U24">
-        <v>180.85400000000001</v>
+        <v>645.34900000000005</v>
       </c>
       <c r="V24">
-        <v>300.65600000000001</v>
+        <v>-12.571999999999999</v>
       </c>
       <c r="W24">
-        <v>-129.273</v>
+        <v>-35.22</v>
       </c>
       <c r="X24">
-        <v>-128.489</v>
+        <v>547.01900000000001</v>
       </c>
       <c r="Y24">
         <v>0</v>
       </c>
       <c r="Z24">
-        <v>4.9370000000000003</v>
+        <v>-496.892</v>
       </c>
       <c r="AA24">
-        <v>85.944000000000003</v>
+        <v>77.795000000000002</v>
       </c>
     </row>
     <row r="25" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A25" s="1">
-        <v>42643</v>
+        <v>38990</v>
       </c>
       <c r="B25" t="s">
         <v>50</v>
       </c>
       <c r="C25">
-        <v>92.144000000000005</v>
+        <v>24.4</v>
       </c>
       <c r="D25">
-        <v>2357.9070000000002</v>
+        <v>2644.835</v>
       </c>
       <c r="E25">
-        <v>737.22400000000005</v>
+        <v>944.73199999999997</v>
       </c>
       <c r="F25">
-        <v>606.31399999999996</v>
+        <v>349.77</v>
       </c>
       <c r="G25">
-        <v>1369.2909999999999</v>
+        <v>3076.8980000000001</v>
       </c>
       <c r="H25">
-        <v>15982.035</v>
+        <v>10188.518</v>
       </c>
       <c r="I25">
-        <v>711.81700000000001</v>
+        <v>1021.732</v>
       </c>
       <c r="J25">
-        <v>8320.1440000000002</v>
+        <v>4036.127</v>
       </c>
       <c r="K25">
-        <v>693.5</v>
+        <v>4.5</v>
       </c>
       <c r="L25">
         <v>0</v>
@@ -2681,81 +2801,81 @@
         <v>0</v>
       </c>
       <c r="N25">
-        <v>2341.9639999999999</v>
+        <v>2123.3440000000001</v>
       </c>
       <c r="O25">
-        <v>12541.821</v>
+        <v>7222.8320000000003</v>
       </c>
       <c r="P25">
-        <v>9474.2939999999999</v>
+        <v>4058.81</v>
       </c>
       <c r="Q25">
-        <v>56.555999999999997</v>
+        <v>-63.642000000000003</v>
       </c>
       <c r="R25">
-        <v>42643</v>
+        <v>38990</v>
       </c>
       <c r="S25">
         <v>0</v>
       </c>
       <c r="T25">
-        <v>3440.2139999999999</v>
+        <v>2965.6860000000001</v>
       </c>
       <c r="U25">
-        <v>237.41</v>
+        <v>247.47499999999999</v>
       </c>
       <c r="V25">
-        <v>390.46600000000001</v>
+        <v>55.463000000000001</v>
       </c>
       <c r="W25">
-        <v>-129.595</v>
+        <v>-37.616999999999997</v>
       </c>
       <c r="X25">
-        <v>-147.80099999999999</v>
+        <v>-340.30799999999999</v>
       </c>
       <c r="Y25">
         <v>0</v>
       </c>
       <c r="Z25">
-        <v>-28.702000000000002</v>
+        <v>333.851</v>
       </c>
       <c r="AA25">
-        <v>92.144000000000005</v>
+        <v>24.4</v>
       </c>
     </row>
     <row r="26" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A26" s="1">
-        <v>42735</v>
+        <v>39082</v>
       </c>
       <c r="B26" t="s">
         <v>51</v>
       </c>
       <c r="C26">
-        <v>90.504999999999995</v>
+        <v>74.625</v>
       </c>
       <c r="D26">
-        <v>2654.4609999999998</v>
+        <v>3073.652</v>
       </c>
       <c r="E26">
-        <v>872.43</v>
+        <v>1348.49</v>
       </c>
       <c r="F26">
-        <v>632.99099999999999</v>
+        <v>471.00299999999999</v>
       </c>
       <c r="G26">
-        <v>1429.684</v>
+        <v>3124.9609999999998</v>
       </c>
       <c r="H26">
-        <v>16138.751</v>
+        <v>10391.082</v>
       </c>
       <c r="I26">
-        <v>874.73099999999999</v>
+        <v>1076.954</v>
       </c>
       <c r="J26">
-        <v>7919.9960000000001</v>
+        <v>4030.855</v>
       </c>
       <c r="K26">
-        <v>1110.277</v>
+        <v>6</v>
       </c>
       <c r="L26">
         <v>0</v>
@@ -2764,164 +2884,164 @@
         <v>0</v>
       </c>
       <c r="N26">
-        <v>2836.701</v>
+        <v>1950.538</v>
       </c>
       <c r="O26">
-        <v>12709.835999999999</v>
+        <v>7374.4790000000003</v>
       </c>
       <c r="P26">
-        <v>9453.7180000000008</v>
+        <v>4055.0140000000001</v>
       </c>
       <c r="Q26">
-        <v>11.465</v>
+        <v>-16.913</v>
       </c>
       <c r="R26">
-        <v>42735</v>
+        <v>39082</v>
       </c>
       <c r="S26">
-        <v>2384</v>
+        <v>4536</v>
       </c>
       <c r="T26">
-        <v>3428.915</v>
+        <v>3016.6030000000001</v>
       </c>
       <c r="U26">
-        <v>248.875</v>
+        <v>68.268000000000001</v>
       </c>
       <c r="V26">
-        <v>431.42</v>
+        <v>32.734999999999999</v>
       </c>
       <c r="W26">
-        <v>-129.49799999999999</v>
+        <v>-35.270000000000003</v>
       </c>
       <c r="X26">
-        <v>-289.09800000000001</v>
+        <v>-79.168000000000006</v>
       </c>
       <c r="Y26">
         <v>0</v>
       </c>
       <c r="Z26">
-        <v>-4.0720000000000001</v>
+        <v>131.01900000000001</v>
       </c>
       <c r="AA26">
-        <v>90.504999999999995</v>
+        <v>74.625</v>
       </c>
     </row>
     <row r="27" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A27" s="1">
-        <v>42825</v>
+        <v>39172</v>
       </c>
       <c r="B27" t="s">
         <v>52</v>
       </c>
       <c r="C27">
-        <v>87.361000000000004</v>
+        <v>152.88</v>
       </c>
       <c r="D27">
-        <v>2749.6109999999999</v>
+        <v>3806.2080000000001</v>
       </c>
       <c r="E27">
-        <v>734.84400000000005</v>
+        <v>1286.444</v>
       </c>
       <c r="F27">
-        <v>605.76800000000003</v>
+        <v>564.85</v>
       </c>
       <c r="G27">
-        <v>1378.4469999999999</v>
+        <v>3080.348</v>
       </c>
       <c r="H27">
-        <v>16067.558000000001</v>
+        <v>10348.911</v>
       </c>
       <c r="I27">
-        <v>703.27800000000002</v>
+        <v>1073.934</v>
       </c>
       <c r="J27">
-        <v>7919.826</v>
+        <v>3627.0430000000001</v>
       </c>
       <c r="K27">
-        <v>1290.729</v>
+        <v>0</v>
       </c>
       <c r="L27">
-        <v>0</v>
+        <v>-6</v>
       </c>
       <c r="M27">
-        <v>-1.9510000000000001</v>
+        <v>-0.52</v>
       </c>
       <c r="N27">
-        <v>2731.9740000000002</v>
+        <v>2343.8319999999999</v>
       </c>
       <c r="O27">
-        <v>12598.045</v>
+        <v>7339.2569999999996</v>
       </c>
       <c r="P27">
-        <v>9632.5210000000006</v>
+        <v>4047.509</v>
       </c>
       <c r="Q27">
-        <v>61.933</v>
+        <v>157.24199999999999</v>
       </c>
       <c r="R27">
-        <v>42825</v>
+        <v>39172</v>
       </c>
       <c r="S27">
         <v>0</v>
       </c>
       <c r="T27">
-        <v>3469.5129999999999</v>
+        <v>3009.654</v>
       </c>
       <c r="U27">
-        <v>310.80799999999999</v>
+        <v>225.51</v>
       </c>
       <c r="V27">
-        <v>269.08999999999997</v>
+        <v>869.29300000000001</v>
       </c>
       <c r="W27">
-        <v>-129.84200000000001</v>
+        <v>-37.691000000000003</v>
       </c>
       <c r="X27">
-        <v>-97.694000000000003</v>
+        <v>-106.577</v>
       </c>
       <c r="Y27">
         <v>0</v>
       </c>
       <c r="Z27">
-        <v>2.9780000000000002</v>
+        <v>-507.04599999999999</v>
       </c>
       <c r="AA27">
-        <v>87.361000000000004</v>
+        <v>152.88</v>
       </c>
     </row>
     <row r="28" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A28" s="1">
-        <v>42916</v>
+        <v>39263</v>
       </c>
       <c r="B28" t="s">
         <v>53</v>
       </c>
       <c r="C28">
-        <v>71.692999999999998</v>
+        <v>35.203000000000003</v>
       </c>
       <c r="D28">
-        <v>2725.7719999999999</v>
+        <v>2876.241</v>
       </c>
       <c r="E28">
-        <v>749.34500000000003</v>
+        <v>1028.9680000000001</v>
       </c>
       <c r="F28">
-        <v>634.75</v>
+        <v>367.69900000000001</v>
       </c>
       <c r="G28">
-        <v>1447.8109999999999</v>
+        <v>2591.1689999999999</v>
       </c>
       <c r="H28">
-        <v>16672.922999999999</v>
+        <v>9988.5300000000007</v>
       </c>
       <c r="I28">
-        <v>696.83399999999995</v>
+        <v>1088.6120000000001</v>
       </c>
       <c r="J28">
-        <v>7835.6059999999998</v>
+        <v>3608.84</v>
       </c>
       <c r="K28">
-        <v>1274.4069999999999</v>
+        <v>105</v>
       </c>
       <c r="L28">
         <v>0</v>
@@ -2930,81 +3050,81 @@
         <v>0</v>
       </c>
       <c r="N28">
-        <v>2860.5189999999998</v>
+        <v>2299.8919999999998</v>
       </c>
       <c r="O28">
-        <v>11107.691999999999</v>
+        <v>7330.6909999999998</v>
       </c>
       <c r="P28">
-        <v>9621.5879999999997</v>
+        <v>4134.3100000000004</v>
       </c>
       <c r="Q28">
-        <v>21.562999999999999</v>
+        <v>77.778000000000006</v>
       </c>
       <c r="R28">
-        <v>42916</v>
+        <v>39263</v>
       </c>
       <c r="S28">
         <v>0</v>
       </c>
       <c r="T28">
-        <v>5565.2309999999998</v>
+        <v>2657.8389999999999</v>
       </c>
       <c r="U28">
-        <v>332.37099999999998</v>
+        <v>303.28800000000001</v>
       </c>
       <c r="V28">
-        <v>373.80099999999999</v>
+        <v>97.855999999999995</v>
       </c>
       <c r="W28">
-        <v>-129.916</v>
+        <v>-37.753</v>
       </c>
       <c r="X28">
-        <v>-277.97000000000003</v>
+        <v>-345.31599999999997</v>
       </c>
       <c r="Y28">
         <v>0</v>
       </c>
       <c r="Z28">
-        <v>7.3049999999999997</v>
+        <v>504.48099999999999</v>
       </c>
       <c r="AA28">
-        <v>71.692999999999998</v>
+        <v>35.203000000000003</v>
       </c>
     </row>
     <row r="29" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A29" s="1">
-        <v>43008</v>
+        <v>39355</v>
       </c>
       <c r="B29" t="s">
         <v>54</v>
       </c>
       <c r="C29">
-        <v>165.74199999999999</v>
+        <v>13.914</v>
       </c>
       <c r="D29">
-        <v>2906.366</v>
+        <v>2809.9969999999998</v>
       </c>
       <c r="E29">
-        <v>939.59500000000003</v>
+        <v>923.44500000000005</v>
       </c>
       <c r="F29">
-        <v>676.95</v>
+        <v>340.16</v>
       </c>
       <c r="G29">
-        <v>1518.865</v>
+        <v>3278.2559999999999</v>
       </c>
       <c r="H29">
-        <v>16764.841</v>
+        <v>10922.384</v>
       </c>
       <c r="I29">
-        <v>922.82</v>
+        <v>979.7</v>
       </c>
       <c r="J29">
-        <v>8092</v>
+        <v>4210.5410000000002</v>
       </c>
       <c r="K29">
-        <v>932.25</v>
+        <v>365</v>
       </c>
       <c r="L29">
         <v>0</v>
@@ -3013,81 +3133,81 @@
         <v>0</v>
       </c>
       <c r="N29">
-        <v>2741.08</v>
+        <v>2505.3470000000002</v>
       </c>
       <c r="O29">
-        <v>11248.458000000001</v>
+        <v>8252.0720000000001</v>
       </c>
       <c r="P29">
-        <v>9456.9</v>
+        <v>4996.0159999999996</v>
       </c>
       <c r="Q29">
-        <v>-320.69499999999999</v>
+        <v>530.45699999999999</v>
       </c>
       <c r="R29">
-        <v>43008</v>
+        <v>39355</v>
       </c>
       <c r="S29">
         <v>0</v>
       </c>
       <c r="T29">
-        <v>5516.3829999999998</v>
+        <v>2670.3119999999999</v>
       </c>
       <c r="U29">
-        <v>11.676</v>
+        <v>833.745</v>
       </c>
       <c r="V29">
-        <v>293.10500000000002</v>
+        <v>-17.192</v>
       </c>
       <c r="W29">
-        <v>0</v>
+        <v>-37.398000000000003</v>
       </c>
       <c r="X29">
-        <v>-402.93400000000003</v>
+        <v>765.33199999999999</v>
       </c>
       <c r="Y29">
         <v>0</v>
       </c>
       <c r="Z29">
-        <v>-76.358999999999995</v>
+        <v>28.143999999999998</v>
       </c>
       <c r="AA29">
-        <v>165.74199999999999</v>
+        <v>13.914</v>
       </c>
     </row>
     <row r="30" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A30" s="1">
-        <v>43100</v>
+        <v>39447</v>
       </c>
       <c r="B30" t="s">
         <v>55</v>
       </c>
       <c r="C30">
-        <v>63.045000000000002</v>
+        <v>102.92400000000001</v>
       </c>
       <c r="D30">
-        <v>3792.1579999999999</v>
+        <v>3984.9679999999998</v>
       </c>
       <c r="E30">
-        <v>1202.951</v>
+        <v>1723.212</v>
       </c>
       <c r="F30">
-        <v>718.39400000000001</v>
+        <v>537.399</v>
       </c>
       <c r="G30">
-        <v>1764.4580000000001</v>
+        <v>2951.4749999999999</v>
       </c>
       <c r="H30">
-        <v>16845.937000000002</v>
+        <v>11062.034</v>
       </c>
       <c r="I30">
-        <v>1140.5709999999999</v>
+        <v>1436.0050000000001</v>
       </c>
       <c r="J30">
-        <v>8091.6289999999999</v>
+        <v>4215.0460000000003</v>
       </c>
       <c r="K30">
-        <v>614.673</v>
+        <v>202.6</v>
       </c>
       <c r="L30">
         <v>0</v>
@@ -3096,164 +3216,164 @@
         <v>0</v>
       </c>
       <c r="N30">
-        <v>2667.335</v>
+        <v>2881.6669999999999</v>
       </c>
       <c r="O30">
-        <v>11160.584999999999</v>
+        <v>8290.7620000000006</v>
       </c>
       <c r="P30">
-        <v>9138.9519999999993</v>
+        <v>4838.125</v>
       </c>
       <c r="Q30">
-        <v>25.516999999999999</v>
+        <v>-814.64</v>
       </c>
       <c r="R30">
-        <v>43100</v>
+        <v>39447</v>
       </c>
       <c r="S30">
-        <v>2470</v>
+        <v>4555</v>
       </c>
       <c r="T30">
-        <v>5685.3519999999999</v>
+        <v>2771.2719999999999</v>
       </c>
       <c r="U30">
-        <v>37.192999999999998</v>
+        <v>19.105</v>
       </c>
       <c r="V30">
-        <v>379.416</v>
+        <v>79.703000000000003</v>
       </c>
       <c r="W30">
-        <v>0</v>
+        <v>-37.345999999999997</v>
       </c>
       <c r="X30">
-        <v>-180.863</v>
+        <v>-240.47800000000001</v>
       </c>
       <c r="Y30">
         <v>0</v>
       </c>
       <c r="Z30">
-        <v>6.9569999999999999</v>
+        <v>1.8779999999999999</v>
       </c>
       <c r="AA30">
-        <v>63.045000000000002</v>
+        <v>102.92400000000001</v>
       </c>
     </row>
     <row r="31" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A31" s="1">
-        <v>43190</v>
+        <v>39538</v>
       </c>
       <c r="B31" t="s">
         <v>56</v>
       </c>
       <c r="C31">
-        <v>264.50799999999998</v>
+        <v>143.83699999999999</v>
       </c>
       <c r="D31">
-        <v>3102.0770000000002</v>
+        <v>4902.076</v>
       </c>
       <c r="E31">
-        <v>844.21799999999996</v>
+        <v>1723.5719999999999</v>
       </c>
       <c r="F31">
-        <v>734.05100000000004</v>
+        <v>585.91200000000003</v>
       </c>
       <c r="G31">
-        <v>1290.7449999999999</v>
+        <v>2742.6640000000002</v>
       </c>
       <c r="H31">
-        <v>16432.347000000002</v>
+        <v>11239.834000000001</v>
       </c>
       <c r="I31">
-        <v>773.05399999999997</v>
+        <v>1585.7570000000001</v>
       </c>
       <c r="J31">
-        <v>7102.92</v>
+        <v>4118.3940000000002</v>
       </c>
       <c r="K31">
-        <v>0</v>
+        <v>265.60000000000002</v>
       </c>
       <c r="L31">
-        <v>-614.673</v>
+        <v>0</v>
       </c>
       <c r="M31">
-        <v>-501.91300000000001</v>
+        <v>-405.50400000000002</v>
       </c>
       <c r="N31">
-        <v>2050.8380000000002</v>
+        <v>2879.0070000000001</v>
       </c>
       <c r="O31">
-        <v>9563.0949999999993</v>
+        <v>8267.58</v>
       </c>
       <c r="P31">
-        <v>8035.57</v>
+        <v>4502.1750000000002</v>
       </c>
       <c r="Q31">
-        <v>-19.719000000000001</v>
+        <v>249.63499999999999</v>
       </c>
       <c r="R31">
-        <v>43190</v>
+        <v>39538</v>
       </c>
       <c r="S31">
         <v>0</v>
       </c>
       <c r="T31">
-        <v>6869.2520000000004</v>
+        <v>2972.2539999999999</v>
       </c>
       <c r="U31">
-        <v>17.474</v>
+        <v>268.74</v>
       </c>
       <c r="V31">
-        <v>495.32100000000003</v>
+        <v>870.51499999999999</v>
       </c>
       <c r="W31">
-        <v>-316.40800000000002</v>
+        <v>-39.536000000000001</v>
       </c>
       <c r="X31">
-        <v>-259.38799999999998</v>
+        <v>-287.27100000000002</v>
       </c>
       <c r="Y31">
         <v>0</v>
       </c>
       <c r="Z31">
-        <v>8.5739999999999998</v>
+        <v>3.3109999999999999</v>
       </c>
       <c r="AA31">
-        <v>264.50799999999998</v>
+        <v>143.83699999999999</v>
       </c>
     </row>
     <row r="32" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A32" s="1">
-        <v>43281</v>
+        <v>39629</v>
       </c>
       <c r="B32" t="s">
         <v>57</v>
       </c>
       <c r="C32">
-        <v>281.048</v>
+        <v>41.865000000000002</v>
       </c>
       <c r="D32">
-        <v>2960.529</v>
+        <v>4172.866</v>
       </c>
       <c r="E32">
-        <v>936.06399999999996</v>
+        <v>1507.6389999999999</v>
       </c>
       <c r="F32">
-        <v>784.71100000000001</v>
+        <v>420.82799999999997</v>
       </c>
       <c r="G32">
-        <v>1433.6869999999999</v>
+        <v>3268.527</v>
       </c>
       <c r="H32">
-        <v>16913.72</v>
+        <v>12169.072</v>
       </c>
       <c r="I32">
-        <v>1027.4670000000001</v>
+        <v>1730.0409999999999</v>
       </c>
       <c r="J32">
-        <v>7096.5360000000001</v>
+        <v>4104.9939999999997</v>
       </c>
       <c r="K32">
-        <v>156</v>
+        <v>801.49300000000005</v>
       </c>
       <c r="L32">
         <v>0</v>
@@ -3262,81 +3382,81 @@
         <v>0</v>
       </c>
       <c r="N32">
-        <v>2572.0810000000001</v>
+        <v>3729.598</v>
       </c>
       <c r="O32">
-        <v>10075.236999999999</v>
+        <v>9213.0689999999995</v>
       </c>
       <c r="P32">
-        <v>8185.1859999999997</v>
+        <v>5024.6729999999998</v>
       </c>
       <c r="Q32">
-        <v>-2.1789999999999998</v>
+        <v>-169.99600000000001</v>
       </c>
       <c r="R32">
-        <v>43281</v>
+        <v>39629</v>
       </c>
       <c r="S32">
         <v>0</v>
       </c>
       <c r="T32">
-        <v>6838.4830000000002</v>
+        <v>2956.0030000000002</v>
       </c>
       <c r="U32">
-        <v>15.295</v>
+        <v>98.744</v>
       </c>
       <c r="V32">
-        <v>507.649</v>
+        <v>-335.71</v>
       </c>
       <c r="W32">
-        <v>-327.08499999999998</v>
+        <v>-39.676000000000002</v>
       </c>
       <c r="X32">
-        <v>-164.07900000000001</v>
+        <v>453.23</v>
       </c>
       <c r="Y32">
         <v>0</v>
       </c>
       <c r="Z32">
-        <v>4.72</v>
+        <v>3.169</v>
       </c>
       <c r="AA32">
-        <v>281.048</v>
+        <v>41.865000000000002</v>
       </c>
     </row>
     <row r="33" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A33" s="1">
-        <v>43373</v>
+        <v>39721</v>
       </c>
       <c r="B33" t="s">
         <v>58</v>
       </c>
       <c r="C33">
-        <v>313.25900000000001</v>
+        <v>58.033000000000001</v>
       </c>
       <c r="D33">
-        <v>3393.89</v>
+        <v>4239.2460000000001</v>
       </c>
       <c r="E33">
-        <v>1087.9749999999999</v>
+        <v>1066.606</v>
       </c>
       <c r="F33">
-        <v>833.125</v>
+        <v>455.02600000000001</v>
       </c>
       <c r="G33">
-        <v>1807.9079999999999</v>
+        <v>3020.65</v>
       </c>
       <c r="H33">
-        <v>17911.313999999998</v>
+        <v>12222.063</v>
       </c>
       <c r="I33">
-        <v>1339.5070000000001</v>
+        <v>1294.6300000000001</v>
       </c>
       <c r="J33">
-        <v>8325.7080000000005</v>
+        <v>4102.25</v>
       </c>
       <c r="K33">
-        <v>120</v>
+        <v>1322.2139999999999</v>
       </c>
       <c r="L33">
         <v>0</v>
@@ -3345,81 +3465,81 @@
         <v>0</v>
       </c>
       <c r="N33">
-        <v>2450.2060000000001</v>
+        <v>3617.4690000000001</v>
       </c>
       <c r="O33">
-        <v>11258.556</v>
+        <v>9105.2060000000001</v>
       </c>
       <c r="P33">
-        <v>8953.3580000000002</v>
+        <v>5542.6540000000005</v>
       </c>
       <c r="Q33">
-        <v>69.168999999999997</v>
+        <v>-25.8</v>
       </c>
       <c r="R33">
-        <v>43373</v>
+        <v>39721</v>
       </c>
       <c r="S33">
         <v>0</v>
       </c>
       <c r="T33">
-        <v>6652.7579999999998</v>
+        <v>3116.857</v>
       </c>
       <c r="U33">
-        <v>84.463999999999999</v>
+        <v>72.944000000000003</v>
       </c>
       <c r="V33">
-        <v>513.48</v>
+        <v>-56.406999999999996</v>
       </c>
       <c r="W33">
-        <v>-339.57499999999999</v>
+        <v>-41.774000000000001</v>
       </c>
       <c r="X33">
-        <v>244.108</v>
+        <v>425.46600000000001</v>
       </c>
       <c r="Y33">
         <v>0</v>
       </c>
       <c r="Z33">
-        <v>5.4880000000000004</v>
+        <v>-3.4169999999999998</v>
       </c>
       <c r="AA33">
-        <v>313.25900000000001</v>
+        <v>58.033000000000001</v>
       </c>
     </row>
     <row r="34" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A34" s="1">
-        <v>43465</v>
+        <v>39813</v>
       </c>
       <c r="B34" t="s">
         <v>59</v>
       </c>
       <c r="C34">
-        <v>292.88799999999998</v>
+        <v>68.174000000000007</v>
       </c>
       <c r="D34">
-        <v>3136.7</v>
+        <v>2843.2449999999999</v>
       </c>
       <c r="E34">
-        <v>820.65800000000002</v>
+        <v>1265.3</v>
       </c>
       <c r="F34">
-        <v>818.601</v>
+        <v>473.76100000000002</v>
       </c>
       <c r="G34">
-        <v>1398.6320000000001</v>
+        <v>3377.6019999999999</v>
       </c>
       <c r="H34">
-        <v>18231.670999999998</v>
+        <v>13126.062</v>
       </c>
       <c r="I34">
-        <v>1116.337</v>
+        <v>1122.761</v>
       </c>
       <c r="J34">
-        <v>8957.5820000000003</v>
+        <v>4112.5810000000001</v>
       </c>
       <c r="K34">
-        <v>0</v>
+        <v>2270</v>
       </c>
       <c r="L34">
         <v>0</v>
@@ -3428,164 +3548,164 @@
         <v>0</v>
       </c>
       <c r="N34">
-        <v>2108.4360000000001</v>
+        <v>4193.7640000000001</v>
       </c>
       <c r="O34">
-        <v>11652.128000000001</v>
+        <v>9958.5229999999992</v>
       </c>
       <c r="P34">
-        <v>9508.2530000000006</v>
+        <v>6500.7759999999998</v>
       </c>
       <c r="Q34">
-        <v>-72.489000000000004</v>
+        <v>437.11399999999998</v>
       </c>
       <c r="R34">
-        <v>43465</v>
+        <v>39813</v>
       </c>
       <c r="S34">
-        <v>2684</v>
+        <v>4742</v>
       </c>
       <c r="T34">
-        <v>6579.5429999999997</v>
+        <v>3167.5390000000002</v>
       </c>
       <c r="U34">
-        <v>11.975</v>
+        <v>510.05799999999999</v>
       </c>
       <c r="V34">
-        <v>670.26900000000001</v>
+        <v>-2.7210000000000001</v>
       </c>
       <c r="W34">
-        <v>0</v>
+        <v>-41.798999999999999</v>
       </c>
       <c r="X34">
-        <v>82.31</v>
+        <v>878.15200000000004</v>
       </c>
       <c r="Y34">
-        <v>26.244</v>
+        <v>0</v>
       </c>
       <c r="Z34">
-        <v>6.2270000000000003</v>
+        <v>0.9</v>
       </c>
       <c r="AA34">
-        <v>292.88799999999998</v>
+        <v>68.174000000000007</v>
       </c>
     </row>
     <row r="35" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A35" s="1">
-        <v>43555</v>
+        <v>39903</v>
       </c>
       <c r="B35" t="s">
         <v>60</v>
       </c>
       <c r="C35">
-        <v>337.20800000000003</v>
+        <v>122.285</v>
       </c>
       <c r="D35">
-        <v>2779.9580000000001</v>
+        <v>2789.8270000000002</v>
       </c>
       <c r="E35">
-        <v>814.16899999999998</v>
+        <v>1014.1420000000001</v>
       </c>
       <c r="F35">
-        <v>823.58100000000002</v>
+        <v>551.41099999999994</v>
       </c>
       <c r="G35">
-        <v>1342.779</v>
+        <v>2038.729</v>
       </c>
       <c r="H35">
-        <v>18934.325000000001</v>
+        <v>11939.964</v>
       </c>
       <c r="I35">
-        <v>1027.3219999999999</v>
+        <v>798.625</v>
       </c>
       <c r="J35">
-        <v>10149.611000000001</v>
+        <v>4602.7560000000003</v>
       </c>
       <c r="K35">
-        <v>0</v>
+        <v>986.7</v>
       </c>
       <c r="L35">
-        <v>0</v>
+        <v>-1283.3</v>
       </c>
       <c r="M35">
-        <v>-501.91300000000001</v>
+        <v>-104.03700000000001</v>
       </c>
       <c r="N35">
-        <v>1689.6690000000001</v>
+        <v>2447.5100000000002</v>
       </c>
       <c r="O35">
-        <v>12492.319</v>
+        <v>8698.8310000000001</v>
       </c>
       <c r="P35">
-        <v>10506.337</v>
+        <v>5607.6559999999999</v>
       </c>
       <c r="Q35">
-        <v>15.839</v>
+        <v>-433.30500000000001</v>
       </c>
       <c r="R35">
-        <v>43555</v>
+        <v>39903</v>
       </c>
       <c r="S35">
         <v>0</v>
       </c>
       <c r="T35">
-        <v>6442.0060000000003</v>
+        <v>3241.1329999999998</v>
       </c>
       <c r="U35">
-        <v>27.814</v>
+        <v>76.753</v>
       </c>
       <c r="V35">
-        <v>353.60599999999999</v>
+        <v>790.85799999999995</v>
       </c>
       <c r="W35">
-        <v>-354.20299999999997</v>
+        <v>-42.08</v>
       </c>
       <c r="X35">
-        <v>527.06200000000001</v>
+        <v>-985.58100000000002</v>
       </c>
       <c r="Y35">
-        <v>38.055999999999997</v>
+        <v>0</v>
       </c>
       <c r="Z35">
-        <v>13.526999999999999</v>
+        <v>3.3620000000000001</v>
       </c>
       <c r="AA35">
-        <v>337.20800000000003</v>
+        <v>122.285</v>
       </c>
     </row>
     <row r="36" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A36" s="1">
-        <v>43646</v>
+        <v>39994</v>
       </c>
       <c r="B36" t="s">
         <v>61</v>
       </c>
       <c r="C36">
-        <v>311.96300000000002</v>
+        <v>41.679000000000002</v>
       </c>
       <c r="D36">
-        <v>2457.5749999999998</v>
+        <v>2227.627</v>
       </c>
       <c r="E36">
-        <v>670.58900000000006</v>
+        <v>771.19600000000003</v>
       </c>
       <c r="F36">
-        <v>831.78099999999995</v>
+        <v>432.42599999999999</v>
       </c>
       <c r="G36">
-        <v>1401.17</v>
+        <v>1793.915</v>
       </c>
       <c r="H36">
-        <v>19751.594000000001</v>
+        <v>11833.723</v>
       </c>
       <c r="I36">
-        <v>907.37699999999995</v>
+        <v>826.41399999999999</v>
       </c>
       <c r="J36">
-        <v>10927.945</v>
+        <v>4346.2849999999999</v>
       </c>
       <c r="K36">
-        <v>0</v>
+        <v>689.91</v>
       </c>
       <c r="L36">
         <v>0</v>
@@ -3594,81 +3714,81 @@
         <v>0</v>
       </c>
       <c r="N36">
-        <v>1737.373</v>
+        <v>2437.0430000000001</v>
       </c>
       <c r="O36">
-        <v>13403.458000000001</v>
+        <v>8420.857</v>
       </c>
       <c r="P36">
-        <v>11363.449000000001</v>
+        <v>5304.4</v>
       </c>
       <c r="Q36">
-        <v>245.583</v>
+        <v>-29.715</v>
       </c>
       <c r="R36">
-        <v>43646</v>
+        <v>39994</v>
       </c>
       <c r="S36">
         <v>0</v>
       </c>
       <c r="T36">
-        <v>6348.1360000000004</v>
+        <v>3412.866</v>
       </c>
       <c r="U36">
-        <v>273.39699999999999</v>
+        <v>47.037999999999997</v>
       </c>
       <c r="V36">
-        <v>614.34500000000003</v>
+        <v>284.99400000000003</v>
       </c>
       <c r="W36">
-        <v>-357.33100000000002</v>
+        <v>-42.122</v>
       </c>
       <c r="X36">
-        <v>398.47</v>
+        <v>-173.113</v>
       </c>
       <c r="Y36">
-        <v>39.258000000000003</v>
+        <v>0</v>
       </c>
       <c r="Z36">
-        <v>63.722000000000001</v>
+        <v>14.031000000000001</v>
       </c>
       <c r="AA36">
-        <v>311.96300000000002</v>
+        <v>41.679000000000002</v>
       </c>
     </row>
     <row r="37" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A37" s="1">
-        <v>43738</v>
+        <v>40086</v>
       </c>
       <c r="B37" t="s">
         <v>62</v>
       </c>
       <c r="C37">
-        <v>309.15499999999997</v>
+        <v>48.042000000000002</v>
       </c>
       <c r="D37">
-        <v>2263.2280000000001</v>
+        <v>2364.7359999999999</v>
       </c>
       <c r="E37">
-        <v>721.10799999999995</v>
+        <v>726.71900000000005</v>
       </c>
       <c r="F37">
-        <v>848.7</v>
+        <v>451.85399999999998</v>
       </c>
       <c r="G37">
-        <v>1967.585</v>
+        <v>1856.962</v>
       </c>
       <c r="H37">
-        <v>21335.906999999999</v>
+        <v>12029.47</v>
       </c>
       <c r="I37">
-        <v>1129.8489999999999</v>
+        <v>766.58</v>
       </c>
       <c r="J37">
-        <v>12741.645</v>
+        <v>4340.2110000000002</v>
       </c>
       <c r="K37">
-        <v>0</v>
+        <v>824</v>
       </c>
       <c r="L37">
         <v>0</v>
@@ -3677,81 +3797,81 @@
         <v>0</v>
       </c>
       <c r="N37">
-        <v>1567.152</v>
+        <v>2644.4609999999998</v>
       </c>
       <c r="O37">
-        <v>15117.001</v>
+        <v>8629.6949999999997</v>
       </c>
       <c r="P37">
-        <v>12807.083000000001</v>
+        <v>5432.4210000000003</v>
       </c>
       <c r="Q37">
-        <v>399.91199999999998</v>
+        <v>5.1420000000000003</v>
       </c>
       <c r="R37">
-        <v>43738</v>
+        <v>40086</v>
       </c>
       <c r="S37">
         <v>0</v>
       </c>
       <c r="T37">
-        <v>6218.9059999999999</v>
+        <v>3399.7750000000001</v>
       </c>
       <c r="U37">
-        <v>673.30899999999997</v>
+        <v>52.18</v>
       </c>
       <c r="V37">
-        <v>358.89400000000001</v>
+        <v>195.08500000000001</v>
       </c>
       <c r="W37">
-        <v>-367.84500000000003</v>
+        <v>-44.265000000000001</v>
       </c>
       <c r="X37">
-        <v>1056.8309999999999</v>
+        <v>51.438000000000002</v>
       </c>
       <c r="Y37">
-        <v>38.591000000000001</v>
+        <v>0</v>
       </c>
       <c r="Z37">
-        <v>4.9219999999999997</v>
+        <v>-37.271000000000001</v>
       </c>
       <c r="AA37">
-        <v>309.15499999999997</v>
+        <v>48.042000000000002</v>
       </c>
     </row>
     <row r="38" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A38" s="1">
-        <v>43830</v>
+        <v>40178</v>
       </c>
       <c r="B38" t="s">
         <v>63</v>
       </c>
       <c r="C38">
-        <v>320.25099999999998</v>
+        <v>93.444999999999993</v>
       </c>
       <c r="D38">
-        <v>2663.6060000000002</v>
+        <v>3729.4609999999998</v>
       </c>
       <c r="E38">
-        <v>835.12099999999998</v>
+        <v>1437.9939999999999</v>
       </c>
       <c r="F38">
-        <v>872.26499999999999</v>
+        <v>580.255</v>
       </c>
       <c r="G38">
-        <v>1470.3340000000001</v>
+        <v>2588.4639999999999</v>
       </c>
       <c r="H38">
-        <v>21812.120999999999</v>
+        <v>12827.683000000001</v>
       </c>
       <c r="I38">
-        <v>1209.9000000000001</v>
+        <v>1240.2070000000001</v>
       </c>
       <c r="J38">
-        <v>12591.537</v>
+        <v>4334.2039999999997</v>
       </c>
       <c r="K38">
-        <v>220</v>
+        <v>881.87</v>
       </c>
       <c r="L38">
         <v>0</v>
@@ -3760,164 +3880,164 @@
         <v>0</v>
       </c>
       <c r="N38">
-        <v>2020.298</v>
+        <v>3338.9119999999998</v>
       </c>
       <c r="O38">
-        <v>15586.17</v>
+        <v>9382.2209999999995</v>
       </c>
       <c r="P38">
-        <v>12950.985000000001</v>
+        <v>5484.2889999999998</v>
       </c>
       <c r="Q38">
-        <v>-652.351</v>
+        <v>-22.780999999999999</v>
       </c>
       <c r="R38">
-        <v>43830</v>
+        <v>40178</v>
       </c>
       <c r="S38">
-        <v>2882</v>
+        <v>4758</v>
       </c>
       <c r="T38">
-        <v>6225.951</v>
+        <v>3445.462</v>
       </c>
       <c r="U38">
-        <v>20.957999999999998</v>
+        <v>29.399000000000001</v>
       </c>
       <c r="V38">
-        <v>619.93399999999997</v>
+        <v>181.75700000000001</v>
       </c>
       <c r="W38">
-        <v>0</v>
+        <v>-44.307000000000002</v>
       </c>
       <c r="X38">
-        <v>-151.40100000000001</v>
+        <v>-38.302999999999997</v>
       </c>
       <c r="Y38">
-        <v>37.805</v>
+        <v>0</v>
       </c>
       <c r="Z38">
-        <v>11.997</v>
+        <v>7.8470000000000004</v>
       </c>
       <c r="AA38">
-        <v>320.25099999999998</v>
+        <v>93.444999999999993</v>
       </c>
     </row>
     <row r="39" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A39" s="1">
-        <v>43921</v>
+        <v>40268</v>
       </c>
       <c r="B39" t="s">
         <v>64</v>
       </c>
       <c r="C39">
-        <v>-141.857</v>
+        <v>154.53899999999999</v>
       </c>
       <c r="D39">
-        <v>2136.672</v>
+        <v>3923.9670000000001</v>
       </c>
       <c r="E39">
-        <v>497.55599999999998</v>
+        <v>1202.2929999999999</v>
       </c>
       <c r="F39">
-        <v>859.74400000000003</v>
+        <v>619.31899999999996</v>
       </c>
       <c r="G39">
-        <v>1488.2819999999999</v>
+        <v>2108.7280000000001</v>
       </c>
       <c r="H39">
-        <v>21969.439999999999</v>
+        <v>12329.191999999999</v>
       </c>
       <c r="I39">
-        <v>742.36900000000003</v>
+        <v>965.01499999999999</v>
       </c>
       <c r="J39">
-        <v>14388.273999999999</v>
+        <v>4103.3329999999996</v>
       </c>
       <c r="K39">
-        <v>0</v>
+        <v>310</v>
       </c>
       <c r="L39">
-        <v>-220</v>
+        <v>-571.87</v>
       </c>
       <c r="M39">
-        <v>-52.389000000000003</v>
+        <v>-3.3330000000000002</v>
       </c>
       <c r="N39">
-        <v>1091.3920000000001</v>
+        <v>2671.5160000000001</v>
       </c>
       <c r="O39">
-        <v>16408.798999999999</v>
+        <v>8449.5509999999995</v>
       </c>
       <c r="P39">
-        <v>14531.58</v>
+        <v>4906.5529999999999</v>
       </c>
       <c r="Q39">
-        <v>510.67200000000003</v>
+        <v>138.03399999999999</v>
       </c>
       <c r="R39">
-        <v>43921</v>
+        <v>40268</v>
       </c>
       <c r="S39">
         <v>0</v>
       </c>
       <c r="T39">
-        <v>5560.6409999999996</v>
+        <v>3879.6410000000001</v>
       </c>
       <c r="U39">
-        <v>531.63</v>
+        <v>167.43299999999999</v>
       </c>
       <c r="V39">
-        <v>422.721</v>
+        <v>558.71699999999998</v>
       </c>
       <c r="W39">
-        <v>-386.66699999999997</v>
+        <v>-46.701000000000001</v>
       </c>
       <c r="X39">
-        <v>1052.7429999999999</v>
+        <v>-354.30700000000002</v>
       </c>
       <c r="Y39">
-        <v>122.23099999999999</v>
+        <v>0</v>
       </c>
       <c r="Z39">
-        <v>6.9489999999999998</v>
+        <v>1.3340000000000001</v>
       </c>
       <c r="AA39">
-        <v>-141.857</v>
+        <v>154.53899999999999</v>
       </c>
     </row>
     <row r="40" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A40" s="1">
-        <v>44012</v>
+        <v>40359</v>
       </c>
       <c r="B40" t="s">
         <v>65</v>
       </c>
       <c r="C40">
-        <v>134.321</v>
+        <v>41.723999999999997</v>
       </c>
       <c r="D40">
-        <v>1660.729</v>
+        <v>2807.1309999999999</v>
       </c>
       <c r="E40">
-        <v>608.923</v>
+        <v>904.32500000000005</v>
       </c>
       <c r="F40">
-        <v>720.27099999999996</v>
+        <v>458.077</v>
       </c>
       <c r="G40">
-        <v>2179.8589999999999</v>
+        <v>1878.2550000000001</v>
       </c>
       <c r="H40">
-        <v>22992.467000000001</v>
+        <v>12119.911</v>
       </c>
       <c r="I40">
-        <v>755.47400000000005</v>
+        <v>830.01499999999999</v>
       </c>
       <c r="J40">
-        <v>14517.437</v>
+        <v>3697.585</v>
       </c>
       <c r="K40">
-        <v>0</v>
+        <v>680</v>
       </c>
       <c r="L40">
         <v>0</v>
@@ -3926,81 +4046,81 @@
         <v>0</v>
       </c>
       <c r="N40">
-        <v>1273.1020000000001</v>
+        <v>2875.6080000000002</v>
       </c>
       <c r="O40">
-        <v>16751.814999999999</v>
+        <v>8249.3369999999995</v>
       </c>
       <c r="P40">
-        <v>14657.666999999999</v>
+        <v>5020.8100000000004</v>
       </c>
       <c r="Q40">
-        <v>414.10199999999998</v>
+        <v>-64.182000000000002</v>
       </c>
       <c r="R40">
-        <v>44012</v>
+        <v>40359</v>
       </c>
       <c r="S40">
         <v>0</v>
       </c>
       <c r="T40">
-        <v>6240.652</v>
+        <v>3870.5740000000001</v>
       </c>
       <c r="U40">
-        <v>945.73199999999997</v>
+        <v>103.251</v>
       </c>
       <c r="V40">
-        <v>313.697</v>
+        <v>32.409999999999997</v>
       </c>
       <c r="W40">
-        <v>-387.29399999999998</v>
+        <v>-46.771000000000001</v>
       </c>
       <c r="X40">
-        <v>690.49900000000002</v>
+        <v>6.9169999999999998</v>
       </c>
       <c r="Y40">
-        <v>116.71599999999999</v>
+        <v>0</v>
       </c>
       <c r="Z40">
-        <v>11.132</v>
+        <v>8.1140000000000008</v>
       </c>
       <c r="AA40">
-        <v>134.321</v>
+        <v>41.723999999999997</v>
       </c>
     </row>
     <row r="41" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A41" s="1">
-        <v>44104</v>
+        <v>40451</v>
       </c>
       <c r="B41" t="s">
         <v>66</v>
       </c>
       <c r="C41">
-        <v>312.31599999999997</v>
+        <v>55.295000000000002</v>
       </c>
       <c r="D41">
-        <v>2174.2640000000001</v>
+        <v>2942.703</v>
       </c>
       <c r="E41">
-        <v>717.85199999999998</v>
+        <v>858.81899999999996</v>
       </c>
       <c r="F41">
-        <v>908.59</v>
+        <v>451.37</v>
       </c>
       <c r="G41">
-        <v>1721.3620000000001</v>
+        <v>1988.7760000000001</v>
       </c>
       <c r="H41">
-        <v>22780.876</v>
+        <v>11929.753000000001</v>
       </c>
       <c r="I41">
-        <v>624.48299999999995</v>
+        <v>885.01700000000005</v>
       </c>
       <c r="J41">
-        <v>14481.33</v>
+        <v>3692.0430000000001</v>
       </c>
       <c r="K41">
-        <v>0</v>
+        <v>326.38499999999999</v>
       </c>
       <c r="L41">
         <v>0</v>
@@ -4009,128 +4129,3448 @@
         <v>0</v>
       </c>
       <c r="N41">
-        <v>1094.1420000000001</v>
+        <v>2596.9409999999998</v>
       </c>
       <c r="O41">
-        <v>16634.763999999999</v>
+        <v>8034.3580000000002</v>
       </c>
       <c r="P41">
-        <v>14618.232</v>
+        <v>4661.6589999999997</v>
       </c>
       <c r="Q41">
-        <v>-498.60300000000001</v>
+        <v>-52.768000000000001</v>
       </c>
       <c r="R41">
-        <v>44104</v>
+        <v>40451</v>
       </c>
       <c r="S41">
         <v>0</v>
       </c>
       <c r="T41">
-        <v>6146.1120000000001</v>
+        <v>3895.395</v>
       </c>
       <c r="U41">
-        <v>447.12900000000002</v>
+        <v>50.482999999999997</v>
       </c>
       <c r="V41">
-        <v>366.71</v>
+        <v>168.904</v>
       </c>
       <c r="W41">
-        <v>-415.61399999999998</v>
+        <v>-48.954000000000001</v>
       </c>
       <c r="X41">
-        <v>-438.32799999999997</v>
+        <v>-471.005</v>
       </c>
       <c r="Y41">
-        <v>114.40600000000001</v>
+        <v>0</v>
       </c>
       <c r="Z41">
-        <v>4.1989999999999998</v>
+        <v>-1.419</v>
       </c>
       <c r="AA41">
-        <v>312.31599999999997</v>
+        <v>55.295000000000002</v>
       </c>
     </row>
     <row r="42" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A42" s="1">
-        <v>44196</v>
+        <v>40543</v>
       </c>
       <c r="B42" t="s">
         <v>67</v>
       </c>
       <c r="C42">
+        <v>0</v>
+      </c>
+      <c r="D42">
+        <v>0</v>
+      </c>
+      <c r="E42">
+        <v>1283.8910000000001</v>
+      </c>
+      <c r="F42">
+        <v>0</v>
+      </c>
+      <c r="G42">
+        <v>2379.7350000000001</v>
+      </c>
+      <c r="H42">
+        <v>12499.174999999999</v>
+      </c>
+      <c r="I42">
+        <v>1212.3230000000001</v>
+      </c>
+      <c r="J42">
+        <v>3686.5419999999999</v>
+      </c>
+      <c r="K42">
+        <v>556.85500000000002</v>
+      </c>
+      <c r="L42">
+        <v>0</v>
+      </c>
+      <c r="M42">
+        <v>0</v>
+      </c>
+      <c r="N42">
+        <v>3151.431</v>
+      </c>
+      <c r="O42">
+        <v>8578.3340000000007</v>
+      </c>
+      <c r="P42">
+        <v>4886.6329999999998</v>
+      </c>
+      <c r="Q42">
+        <v>0</v>
+      </c>
+      <c r="R42">
+        <v>40543</v>
+      </c>
+      <c r="S42">
+        <v>4839</v>
+      </c>
+      <c r="T42">
+        <v>3920.8409999999999</v>
+      </c>
+      <c r="U42">
+        <v>30.341000000000001</v>
+      </c>
+      <c r="V42">
+        <v>0</v>
+      </c>
+      <c r="W42">
+        <v>0</v>
+      </c>
+      <c r="X42">
+        <v>0</v>
+      </c>
+      <c r="Y42">
+        <v>0</v>
+      </c>
+      <c r="Z42">
+        <v>0</v>
+      </c>
+      <c r="AA42">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A43" s="1">
+        <v>40633</v>
+      </c>
+      <c r="B43" t="s">
+        <v>68</v>
+      </c>
+      <c r="C43">
+        <v>130.13</v>
+      </c>
+      <c r="D43">
+        <v>3760.6</v>
+      </c>
+      <c r="E43">
+        <v>1280.125</v>
+      </c>
+      <c r="F43">
+        <v>629.87699999999995</v>
+      </c>
+      <c r="G43">
+        <v>2795.7739999999999</v>
+      </c>
+      <c r="H43">
+        <v>13039.596</v>
+      </c>
+      <c r="I43">
+        <v>1131.922</v>
+      </c>
+      <c r="J43">
+        <v>4976.4579999999996</v>
+      </c>
+      <c r="K43">
+        <v>0</v>
+      </c>
+      <c r="L43">
+        <v>-556.85500000000002</v>
+      </c>
+      <c r="M43">
+        <v>-228.137</v>
+      </c>
+      <c r="N43">
+        <v>2301.6480000000001</v>
+      </c>
+      <c r="O43">
+        <v>9082.5779999999995</v>
+      </c>
+      <c r="P43">
+        <v>5394.7</v>
+      </c>
+      <c r="Q43">
+        <v>846.23099999999999</v>
+      </c>
+      <c r="R43">
+        <v>40633</v>
+      </c>
+      <c r="S43">
+        <v>0</v>
+      </c>
+      <c r="T43">
+        <v>3957.018</v>
+      </c>
+      <c r="U43">
+        <v>870.08600000000001</v>
+      </c>
+      <c r="V43">
+        <v>654.96</v>
+      </c>
+      <c r="W43">
+        <v>-55.651000000000003</v>
+      </c>
+      <c r="X43">
+        <v>380.75599999999997</v>
+      </c>
+      <c r="Y43">
+        <v>0</v>
+      </c>
+      <c r="Z43">
+        <v>4.6539999999999999</v>
+      </c>
+      <c r="AA43">
+        <v>130.13</v>
+      </c>
+    </row>
+    <row r="44" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A44" s="1">
+        <v>40724</v>
+      </c>
+      <c r="B44" t="s">
+        <v>69</v>
+      </c>
+      <c r="C44">
+        <v>55.142000000000003</v>
+      </c>
+      <c r="D44">
+        <v>3444.7979999999998</v>
+      </c>
+      <c r="E44">
+        <v>1125.338</v>
+      </c>
+      <c r="F44">
+        <v>518.83299999999997</v>
+      </c>
+      <c r="G44">
+        <v>2529.261</v>
+      </c>
+      <c r="H44">
+        <v>13036.333000000001</v>
+      </c>
+      <c r="I44">
+        <v>1194.1030000000001</v>
+      </c>
+      <c r="J44">
+        <v>4622.616</v>
+      </c>
+      <c r="K44">
+        <v>526.63300000000004</v>
+      </c>
+      <c r="L44">
+        <v>0</v>
+      </c>
+      <c r="M44">
+        <v>0</v>
+      </c>
+      <c r="N44">
+        <v>2840.6170000000002</v>
+      </c>
+      <c r="O44">
+        <v>9338.6290000000008</v>
+      </c>
+      <c r="P44">
+        <v>5517.4970000000003</v>
+      </c>
+      <c r="Q44">
+        <v>-404.39299999999997</v>
+      </c>
+      <c r="R44">
+        <v>40724</v>
+      </c>
+      <c r="S44">
+        <v>0</v>
+      </c>
+      <c r="T44">
+        <v>3697.7040000000002</v>
+      </c>
+      <c r="U44">
+        <v>477.57299999999998</v>
+      </c>
+      <c r="V44">
+        <v>215.93799999999999</v>
+      </c>
+      <c r="W44">
+        <v>-55.704999999999998</v>
+      </c>
+      <c r="X44">
+        <v>-300.92700000000002</v>
+      </c>
+      <c r="Y44">
+        <v>0</v>
+      </c>
+      <c r="Z44">
+        <v>9.4410000000000007</v>
+      </c>
+      <c r="AA44">
+        <v>55.142000000000003</v>
+      </c>
+    </row>
+    <row r="45" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A45" s="1">
+        <v>40816</v>
+      </c>
+      <c r="B45" t="s">
+        <v>70</v>
+      </c>
+      <c r="C45">
+        <v>60.320999999999998</v>
+      </c>
+      <c r="D45">
+        <v>3529.3589999999999</v>
+      </c>
+      <c r="E45">
+        <v>1141.1320000000001</v>
+      </c>
+      <c r="F45">
+        <v>532.62400000000002</v>
+      </c>
+      <c r="G45">
+        <v>2312.0430000000001</v>
+      </c>
+      <c r="H45">
+        <v>13171.124</v>
+      </c>
+      <c r="I45">
+        <v>1241.633</v>
+      </c>
+      <c r="J45">
+        <v>4532.0529999999999</v>
+      </c>
+      <c r="K45">
+        <v>650</v>
+      </c>
+      <c r="L45">
+        <v>0</v>
+      </c>
+      <c r="M45">
+        <v>0</v>
+      </c>
+      <c r="N45">
+        <v>2976.7640000000001</v>
+      </c>
+      <c r="O45">
+        <v>9489.0640000000003</v>
+      </c>
+      <c r="P45">
+        <v>5547.3059999999996</v>
+      </c>
+      <c r="Q45">
+        <v>-322.56700000000001</v>
+      </c>
+      <c r="R45">
+        <v>40816</v>
+      </c>
+      <c r="S45">
+        <v>0</v>
+      </c>
+      <c r="T45">
+        <v>3682.06</v>
+      </c>
+      <c r="U45">
+        <v>148.40700000000001</v>
+      </c>
+      <c r="V45">
+        <v>160.619</v>
+      </c>
+      <c r="W45">
+        <v>-57.981000000000002</v>
+      </c>
+      <c r="X45">
+        <v>-95.188000000000002</v>
+      </c>
+      <c r="Y45">
+        <v>0</v>
+      </c>
+      <c r="Z45">
+        <v>-49.622999999999998</v>
+      </c>
+      <c r="AA45">
+        <v>60.320999999999998</v>
+      </c>
+    </row>
+    <row r="46" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A46" s="1">
+        <v>40908</v>
+      </c>
+      <c r="B46" t="s">
+        <v>71</v>
+      </c>
+      <c r="C46">
+        <v>115.001</v>
+      </c>
+      <c r="D46">
+        <v>4071.0369999999998</v>
+      </c>
+      <c r="E46">
+        <v>1339.933</v>
+      </c>
+      <c r="F46">
+        <v>699.02499999999998</v>
+      </c>
+      <c r="G46">
+        <v>2318.8119999999999</v>
+      </c>
+      <c r="H46">
+        <v>13696.635</v>
+      </c>
+      <c r="I46">
+        <v>1341.7180000000001</v>
+      </c>
+      <c r="J46">
+        <v>4529.5510000000004</v>
+      </c>
+      <c r="K46">
+        <v>841.98199999999997</v>
+      </c>
+      <c r="L46">
+        <v>0</v>
+      </c>
+      <c r="M46">
+        <v>0</v>
+      </c>
+      <c r="N46">
+        <v>3246.1750000000002</v>
+      </c>
+      <c r="O46">
+        <v>9896.9030000000002</v>
+      </c>
+      <c r="P46">
+        <v>5735.924</v>
+      </c>
+      <c r="Q46">
+        <v>-83.659000000000006</v>
+      </c>
+      <c r="R46">
+        <v>40908</v>
+      </c>
+      <c r="S46">
+        <v>4795</v>
+      </c>
+      <c r="T46">
+        <v>3799.732</v>
+      </c>
+      <c r="U46">
+        <v>65.953000000000003</v>
+      </c>
+      <c r="V46">
+        <v>320.28899999999999</v>
+      </c>
+      <c r="W46">
+        <v>-57.683</v>
+      </c>
+      <c r="X46">
+        <v>70.790999999999997</v>
+      </c>
+      <c r="Y46">
+        <v>0</v>
+      </c>
+      <c r="Z46">
+        <v>-5.319</v>
+      </c>
+      <c r="AA46">
+        <v>115.001</v>
+      </c>
+    </row>
+    <row r="47" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A47" s="1">
+        <v>40999</v>
+      </c>
+      <c r="B47" t="s">
+        <v>72</v>
+      </c>
+      <c r="C47">
+        <v>122.86499999999999</v>
+      </c>
+      <c r="D47">
+        <v>3414.6</v>
+      </c>
+      <c r="E47">
+        <v>1154.951</v>
+      </c>
+      <c r="F47">
+        <v>643.58699999999999</v>
+      </c>
+      <c r="G47">
+        <v>2609.2750000000001</v>
+      </c>
+      <c r="H47">
+        <v>14252.075999999999</v>
+      </c>
+      <c r="I47">
+        <v>1110.1079999999999</v>
+      </c>
+      <c r="J47">
+        <v>5225.8490000000002</v>
+      </c>
+      <c r="K47">
+        <v>419.75700000000001</v>
+      </c>
+      <c r="L47">
+        <v>-422.22500000000002</v>
+      </c>
+      <c r="M47">
+        <v>-3.0819999999999999</v>
+      </c>
+      <c r="N47">
+        <v>2600.3229999999999</v>
+      </c>
+      <c r="O47">
+        <v>9872.6209999999992</v>
+      </c>
+      <c r="P47">
+        <v>6010.0029999999997</v>
+      </c>
+      <c r="Q47">
+        <v>715.23900000000003</v>
+      </c>
+      <c r="R47">
+        <v>40999</v>
+      </c>
+      <c r="S47">
+        <v>0</v>
+      </c>
+      <c r="T47">
+        <v>4379.4549999999999</v>
+      </c>
+      <c r="U47">
+        <v>781.19200000000001</v>
+      </c>
+      <c r="V47">
+        <v>434.94400000000002</v>
+      </c>
+      <c r="W47">
+        <v>-63.375</v>
+      </c>
+      <c r="X47">
+        <v>594.69399999999996</v>
+      </c>
+      <c r="Y47">
+        <v>0</v>
+      </c>
+      <c r="Z47">
+        <v>1.4850000000000001</v>
+      </c>
+      <c r="AA47">
+        <v>122.86499999999999</v>
+      </c>
+    </row>
+    <row r="48" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A48" s="1">
+        <v>41090</v>
+      </c>
+      <c r="B48" t="s">
+        <v>73</v>
+      </c>
+      <c r="C48">
+        <v>60.993000000000002</v>
+      </c>
+      <c r="D48">
+        <v>2529.2600000000002</v>
+      </c>
+      <c r="E48">
+        <v>793.84199999999998</v>
+      </c>
+      <c r="F48">
+        <v>548.96199999999999</v>
+      </c>
+      <c r="G48">
+        <v>1807.319</v>
+      </c>
+      <c r="H48">
+        <v>13817.191000000001</v>
+      </c>
+      <c r="I48">
+        <v>911.97699999999998</v>
+      </c>
+      <c r="J48">
+        <v>5224.6229999999996</v>
+      </c>
+      <c r="K48">
+        <v>595.93100000000004</v>
+      </c>
+      <c r="L48">
+        <v>0</v>
+      </c>
+      <c r="M48">
+        <v>0</v>
+      </c>
+      <c r="N48">
+        <v>2256.6770000000001</v>
+      </c>
+      <c r="O48">
+        <v>9611.2029999999995</v>
+      </c>
+      <c r="P48">
+        <v>5832.8159999999998</v>
+      </c>
+      <c r="Q48">
+        <v>-666.27200000000005</v>
+      </c>
+      <c r="R48">
+        <v>41090</v>
+      </c>
+      <c r="S48">
+        <v>0</v>
+      </c>
+      <c r="T48">
+        <v>4205.9880000000003</v>
+      </c>
+      <c r="U48">
+        <v>114.92</v>
+      </c>
+      <c r="V48">
+        <v>226.52500000000001</v>
+      </c>
+      <c r="W48">
+        <v>-63.396999999999998</v>
+      </c>
+      <c r="X48">
+        <v>-468.745</v>
+      </c>
+      <c r="Y48">
+        <v>0</v>
+      </c>
+      <c r="Z48">
+        <v>5.9829999999999997</v>
+      </c>
+      <c r="AA48">
+        <v>60.993000000000002</v>
+      </c>
+    </row>
+    <row r="49" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A49" s="1">
+        <v>41182</v>
+      </c>
+      <c r="B49" t="s">
+        <v>74</v>
+      </c>
+      <c r="C49">
+        <v>65.218999999999994</v>
+      </c>
+      <c r="D49">
+        <v>3028.7750000000001</v>
+      </c>
+      <c r="E49">
+        <v>984.72400000000005</v>
+      </c>
+      <c r="F49">
+        <v>553.97199999999998</v>
+      </c>
+      <c r="G49">
+        <v>2956.03</v>
+      </c>
+      <c r="H49">
+        <v>15364.307000000001</v>
+      </c>
+      <c r="I49">
+        <v>1153.75</v>
+      </c>
+      <c r="J49">
+        <v>6517.4639999999999</v>
+      </c>
+      <c r="K49">
+        <v>676.74699999999996</v>
+      </c>
+      <c r="L49">
+        <v>0</v>
+      </c>
+      <c r="M49">
+        <v>0</v>
+      </c>
+      <c r="N49">
+        <v>2439.1129999999998</v>
+      </c>
+      <c r="O49">
+        <v>11188.748</v>
+      </c>
+      <c r="P49">
+        <v>7205.3509999999997</v>
+      </c>
+      <c r="Q49">
+        <v>863.90499999999997</v>
+      </c>
+      <c r="R49">
+        <v>41182</v>
+      </c>
+      <c r="S49">
+        <v>0</v>
+      </c>
+      <c r="T49">
+        <v>4175.5590000000002</v>
+      </c>
+      <c r="U49">
+        <v>978.82500000000005</v>
+      </c>
+      <c r="V49">
+        <v>110.249</v>
+      </c>
+      <c r="W49">
+        <v>-67.671000000000006</v>
+      </c>
+      <c r="X49">
+        <v>1213.789</v>
+      </c>
+      <c r="Y49">
+        <v>0</v>
+      </c>
+      <c r="Z49">
+        <v>-2.996</v>
+      </c>
+      <c r="AA49">
+        <v>65.218999999999994</v>
+      </c>
+    </row>
+    <row r="50" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A50" s="1">
+        <v>41274</v>
+      </c>
+      <c r="B50" t="s">
+        <v>75</v>
+      </c>
+      <c r="C50">
+        <v>111.542</v>
+      </c>
+      <c r="D50">
+        <v>3659.924</v>
+      </c>
+      <c r="E50">
+        <v>1349.3710000000001</v>
+      </c>
+      <c r="F50">
+        <v>604.32000000000005</v>
+      </c>
+      <c r="G50">
+        <v>2764.66</v>
+      </c>
+      <c r="H50">
+        <v>15855.275</v>
+      </c>
+      <c r="I50">
+        <v>1333.489</v>
+      </c>
+      <c r="J50">
+        <v>6515.3720000000003</v>
+      </c>
+      <c r="K50">
+        <v>817.17</v>
+      </c>
+      <c r="L50">
+        <v>0</v>
+      </c>
+      <c r="M50">
+        <v>0</v>
+      </c>
+      <c r="N50">
+        <v>2812.9940000000001</v>
+      </c>
+      <c r="O50">
+        <v>11622.825000000001</v>
+      </c>
+      <c r="P50">
+        <v>7343.3969999999999</v>
+      </c>
+      <c r="Q50">
+        <v>-395.20699999999999</v>
+      </c>
+      <c r="R50">
+        <v>41274</v>
+      </c>
+      <c r="S50">
+        <v>4859</v>
+      </c>
+      <c r="T50">
+        <v>4232.45</v>
+      </c>
+      <c r="U50">
+        <v>583.61800000000005</v>
+      </c>
+      <c r="V50">
+        <v>221.136</v>
+      </c>
+      <c r="W50">
+        <v>-67.525999999999996</v>
+      </c>
+      <c r="X50">
+        <v>-0.72799999999999998</v>
+      </c>
+      <c r="Y50">
+        <v>0</v>
+      </c>
+      <c r="Z50">
+        <v>5.8999999999999997E-2</v>
+      </c>
+      <c r="AA50">
+        <v>111.542</v>
+      </c>
+    </row>
+    <row r="51" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A51" s="1">
+        <v>41364</v>
+      </c>
+      <c r="B51" t="s">
+        <v>76</v>
+      </c>
+      <c r="C51">
+        <v>112.521</v>
+      </c>
+      <c r="D51">
+        <v>2517.9549999999999</v>
+      </c>
+      <c r="E51">
+        <v>1261.8040000000001</v>
+      </c>
+      <c r="F51">
+        <v>371.10700000000003</v>
+      </c>
+      <c r="G51">
+        <v>1949.663</v>
+      </c>
+      <c r="H51">
+        <v>15446.218999999999</v>
+      </c>
+      <c r="I51">
+        <v>1205.248</v>
+      </c>
+      <c r="J51">
+        <v>6513.3270000000002</v>
+      </c>
+      <c r="K51">
+        <v>551.25</v>
+      </c>
+      <c r="L51">
+        <v>-265.92</v>
+      </c>
+      <c r="M51">
+        <v>-1.9750000000000001</v>
+      </c>
+      <c r="N51">
+        <v>2337.0250000000001</v>
+      </c>
+      <c r="O51">
+        <v>11242.085999999999</v>
+      </c>
+      <c r="P51">
+        <v>7075.348</v>
+      </c>
+      <c r="Q51">
+        <v>-442.04300000000001</v>
+      </c>
+      <c r="R51">
+        <v>41364</v>
+      </c>
+      <c r="S51">
+        <v>0</v>
+      </c>
+      <c r="T51">
+        <v>4204.1329999999998</v>
+      </c>
+      <c r="U51">
+        <v>143.947</v>
+      </c>
+      <c r="V51">
+        <v>469.12599999999998</v>
+      </c>
+      <c r="W51">
+        <v>-73.781000000000006</v>
+      </c>
+      <c r="X51">
+        <v>-416.36200000000002</v>
+      </c>
+      <c r="Y51">
+        <v>0</v>
+      </c>
+      <c r="Z51">
+        <v>3.6619999999999999</v>
+      </c>
+      <c r="AA51">
+        <v>112.521</v>
+      </c>
+    </row>
+    <row r="52" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A52" s="1">
+        <v>41455</v>
+      </c>
+      <c r="B52" t="s">
+        <v>77</v>
+      </c>
+      <c r="C52">
+        <v>0.91900000000000004</v>
+      </c>
+      <c r="D52">
+        <v>2768.9839999999999</v>
+      </c>
+      <c r="E52">
+        <v>1158.7380000000001</v>
+      </c>
+      <c r="F52">
+        <v>412.75799999999998</v>
+      </c>
+      <c r="G52">
+        <v>1889.5889999999999</v>
+      </c>
+      <c r="H52">
+        <v>15842.273999999999</v>
+      </c>
+      <c r="I52">
+        <v>1214.3219999999999</v>
+      </c>
+      <c r="J52">
+        <v>6511.3590000000004</v>
+      </c>
+      <c r="K52">
+        <v>834</v>
+      </c>
+      <c r="L52">
+        <v>0</v>
+      </c>
+      <c r="M52">
+        <v>0</v>
+      </c>
+      <c r="N52">
+        <v>2648.779</v>
+      </c>
+      <c r="O52">
+        <v>11667.918</v>
+      </c>
+      <c r="P52">
+        <v>7356.0439999999999</v>
+      </c>
+      <c r="Q52">
+        <v>-107.64700000000001</v>
+      </c>
+      <c r="R52">
+        <v>41455</v>
+      </c>
+      <c r="S52">
+        <v>0</v>
+      </c>
+      <c r="T52">
+        <v>4174.3559999999998</v>
+      </c>
+      <c r="U52">
+        <v>33.680999999999997</v>
+      </c>
+      <c r="V52">
+        <v>319.40199999999999</v>
+      </c>
+      <c r="W52">
+        <v>-74.200999999999993</v>
+      </c>
+      <c r="X52">
+        <v>121.744</v>
+      </c>
+      <c r="Y52">
+        <v>0</v>
+      </c>
+      <c r="Z52">
+        <v>9.7379999999999995</v>
+      </c>
+      <c r="AA52">
+        <v>0.91900000000000004</v>
+      </c>
+    </row>
+    <row r="53" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A53" s="1">
+        <v>41547</v>
+      </c>
+      <c r="B53" t="s">
+        <v>78</v>
+      </c>
+      <c r="C53">
+        <v>62.356000000000002</v>
+      </c>
+      <c r="D53">
+        <v>3135.3809999999999</v>
+      </c>
+      <c r="E53">
+        <v>1166.9939999999999</v>
+      </c>
+      <c r="F53">
+        <v>424.22199999999998</v>
+      </c>
+      <c r="G53">
+        <v>2882.0239999999999</v>
+      </c>
+      <c r="H53">
+        <v>17610.343000000001</v>
+      </c>
+      <c r="I53">
+        <v>1382.7850000000001</v>
+      </c>
+      <c r="J53">
+        <v>7757.1589999999997</v>
+      </c>
+      <c r="K53">
+        <v>562.32899999999995</v>
+      </c>
+      <c r="L53">
+        <v>0</v>
+      </c>
+      <c r="M53">
+        <v>0</v>
+      </c>
+      <c r="N53">
+        <v>2621.71</v>
+      </c>
+      <c r="O53">
+        <v>12919.697</v>
+      </c>
+      <c r="P53">
+        <v>8330.1440000000002</v>
+      </c>
+      <c r="Q53">
+        <v>746.95399999999995</v>
+      </c>
+      <c r="R53">
+        <v>41547</v>
+      </c>
+      <c r="S53">
+        <v>0</v>
+      </c>
+      <c r="T53">
+        <v>4690.6459999999997</v>
+      </c>
+      <c r="U53">
+        <v>779.524</v>
+      </c>
+      <c r="V53">
+        <v>234.376</v>
+      </c>
+      <c r="W53">
+        <v>-78.367000000000004</v>
+      </c>
+      <c r="X53">
+        <v>1349.6690000000001</v>
+      </c>
+      <c r="Y53">
+        <v>0</v>
+      </c>
+      <c r="Z53">
+        <v>6.9329999999999998</v>
+      </c>
+      <c r="AA53">
+        <v>62.356000000000002</v>
+      </c>
+    </row>
+    <row r="54" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A54" s="1">
+        <v>41639</v>
+      </c>
+      <c r="B54" t="s">
+        <v>79</v>
+      </c>
+      <c r="C54">
+        <v>90.736999999999995</v>
+      </c>
+      <c r="D54">
+        <v>3449.5590000000002</v>
+      </c>
+      <c r="E54">
+        <v>1109.51</v>
+      </c>
+      <c r="F54">
+        <v>441.57900000000001</v>
+      </c>
+      <c r="G54">
+        <v>2404.7240000000002</v>
+      </c>
+      <c r="H54">
+        <v>17741.481</v>
+      </c>
+      <c r="I54">
+        <v>1273.1020000000001</v>
+      </c>
+      <c r="J54">
+        <v>7753.6570000000002</v>
+      </c>
+      <c r="K54">
+        <v>564.46199999999999</v>
+      </c>
+      <c r="L54">
+        <v>0</v>
+      </c>
+      <c r="M54">
+        <v>0</v>
+      </c>
+      <c r="N54">
+        <v>2730.33</v>
+      </c>
+      <c r="O54">
+        <v>12896.300999999999</v>
+      </c>
+      <c r="P54">
+        <v>8328.7690000000002</v>
+      </c>
+      <c r="Q54">
+        <v>-628.721</v>
+      </c>
+      <c r="R54">
+        <v>41639</v>
+      </c>
+      <c r="S54">
+        <v>1927</v>
+      </c>
+      <c r="T54">
+        <v>4845.18</v>
+      </c>
+      <c r="U54">
+        <v>145.565</v>
+      </c>
+      <c r="V54">
+        <v>274.71100000000001</v>
+      </c>
+      <c r="W54">
+        <v>-78.393000000000001</v>
+      </c>
+      <c r="X54">
+        <v>-142.09200000000001</v>
+      </c>
+      <c r="Y54">
+        <v>0</v>
+      </c>
+      <c r="Z54">
+        <v>-24.507000000000001</v>
+      </c>
+      <c r="AA54">
+        <v>90.736999999999995</v>
+      </c>
+    </row>
+    <row r="55" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A55" s="1">
+        <v>41729</v>
+      </c>
+      <c r="B55" t="s">
+        <v>80</v>
+      </c>
+      <c r="C55">
+        <v>93.515000000000001</v>
+      </c>
+      <c r="D55">
+        <v>3163.2959999999998</v>
+      </c>
+      <c r="E55">
+        <v>883.673</v>
+      </c>
+      <c r="F55">
+        <v>510.62700000000001</v>
+      </c>
+      <c r="G55">
+        <v>1656.327</v>
+      </c>
+      <c r="H55">
+        <v>13653.134</v>
+      </c>
+      <c r="I55">
+        <v>1155.114</v>
+      </c>
+      <c r="J55">
+        <v>7199.0290000000005</v>
+      </c>
+      <c r="K55">
+        <v>125</v>
+      </c>
+      <c r="L55">
+        <v>-439.46199999999999</v>
+      </c>
+      <c r="M55">
+        <v>-551.93299999999999</v>
+      </c>
+      <c r="N55">
+        <v>1891.7239999999999</v>
+      </c>
+      <c r="O55">
+        <v>10525.427</v>
+      </c>
+      <c r="P55">
+        <v>7339.2529999999997</v>
+      </c>
+      <c r="Q55">
+        <v>64.662000000000006</v>
+      </c>
+      <c r="R55">
+        <v>41729</v>
+      </c>
+      <c r="S55">
+        <v>0</v>
+      </c>
+      <c r="T55">
+        <v>3127.7069999999999</v>
+      </c>
+      <c r="U55">
+        <v>210.227</v>
+      </c>
+      <c r="V55">
+        <v>494.13099999999997</v>
+      </c>
+      <c r="W55">
+        <v>-83.275000000000006</v>
+      </c>
+      <c r="X55">
+        <v>9.8650000000000002</v>
+      </c>
+      <c r="Y55">
+        <v>0</v>
+      </c>
+      <c r="Z55">
+        <v>4.0979999999999999</v>
+      </c>
+      <c r="AA55">
+        <v>93.515000000000001</v>
+      </c>
+    </row>
+    <row r="56" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A56" s="1">
+        <v>41820</v>
+      </c>
+      <c r="B56" t="s">
+        <v>81</v>
+      </c>
+      <c r="C56">
+        <v>61.59</v>
+      </c>
+      <c r="D56">
+        <v>3066.8820000000001</v>
+      </c>
+      <c r="E56">
+        <v>1097.008</v>
+      </c>
+      <c r="F56">
+        <v>495.48</v>
+      </c>
+      <c r="G56">
+        <v>2059.6550000000002</v>
+      </c>
+      <c r="H56">
+        <v>14384.538</v>
+      </c>
+      <c r="I56">
+        <v>1271.539</v>
+      </c>
+      <c r="J56">
+        <v>7196.9880000000003</v>
+      </c>
+      <c r="K56">
+        <v>0</v>
+      </c>
+      <c r="L56">
+        <v>0</v>
+      </c>
+      <c r="M56">
+        <v>0</v>
+      </c>
+      <c r="N56">
+        <v>1851.171</v>
+      </c>
+      <c r="O56">
+        <v>10591.207</v>
+      </c>
+      <c r="P56">
+        <v>7226.8779999999997</v>
+      </c>
+      <c r="Q56">
+        <v>148.333</v>
+      </c>
+      <c r="R56">
+        <v>41820</v>
+      </c>
+      <c r="S56">
+        <v>0</v>
+      </c>
+      <c r="T56">
+        <v>3793.3310000000001</v>
+      </c>
+      <c r="U56">
+        <v>358.56</v>
+      </c>
+      <c r="V56">
+        <v>45.441000000000003</v>
+      </c>
+      <c r="W56">
+        <v>-116.40900000000001</v>
+      </c>
+      <c r="X56">
+        <v>484.05399999999997</v>
+      </c>
+      <c r="Y56">
+        <v>0</v>
+      </c>
+      <c r="Z56">
+        <v>11.288</v>
+      </c>
+      <c r="AA56">
+        <v>61.59</v>
+      </c>
+    </row>
+    <row r="57" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A57" s="1">
+        <v>41912</v>
+      </c>
+      <c r="B57" t="s">
+        <v>82</v>
+      </c>
+      <c r="C57">
+        <v>64.457999999999998</v>
+      </c>
+      <c r="D57">
+        <v>3120.145</v>
+      </c>
+      <c r="E57">
+        <v>971.28499999999997</v>
+      </c>
+      <c r="F57">
+        <v>536.94100000000003</v>
+      </c>
+      <c r="G57">
+        <v>1712.787</v>
+      </c>
+      <c r="H57">
+        <v>14312.196</v>
+      </c>
+      <c r="I57">
+        <v>1221.934</v>
+      </c>
+      <c r="J57">
+        <v>7194.9570000000003</v>
+      </c>
+      <c r="K57">
+        <v>0</v>
+      </c>
+      <c r="L57">
+        <v>0</v>
+      </c>
+      <c r="M57">
+        <v>0</v>
+      </c>
+      <c r="N57">
+        <v>1781.9010000000001</v>
+      </c>
+      <c r="O57">
+        <v>10552.800999999999</v>
+      </c>
+      <c r="P57">
+        <v>7228.915</v>
+      </c>
+      <c r="Q57">
+        <v>-207.15700000000001</v>
+      </c>
+      <c r="R57">
+        <v>41912</v>
+      </c>
+      <c r="S57">
+        <v>0</v>
+      </c>
+      <c r="T57">
+        <v>3759.395</v>
+      </c>
+      <c r="U57">
+        <v>151.40299999999999</v>
+      </c>
+      <c r="V57">
+        <v>334.13</v>
+      </c>
+      <c r="W57">
+        <v>-121.367</v>
+      </c>
+      <c r="X57">
+        <v>-169.64699999999999</v>
+      </c>
+      <c r="Y57">
+        <v>0</v>
+      </c>
+      <c r="Z57">
+        <v>8.4760000000000009</v>
+      </c>
+      <c r="AA57">
+        <v>64.457999999999998</v>
+      </c>
+    </row>
+    <row r="58" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A58" s="1">
+        <v>42004</v>
+      </c>
+      <c r="B58" t="s">
+        <v>83</v>
+      </c>
+      <c r="C58">
+        <v>94.543999999999997</v>
+      </c>
+      <c r="D58">
+        <v>2844.768</v>
+      </c>
+      <c r="E58">
+        <v>745.49400000000003</v>
+      </c>
+      <c r="F58">
+        <v>563.495</v>
+      </c>
+      <c r="G58">
+        <v>1307.2439999999999</v>
+      </c>
+      <c r="H58">
+        <v>15261.772999999999</v>
+      </c>
+      <c r="I58">
+        <v>891.41300000000001</v>
+      </c>
+      <c r="J58">
+        <v>7150.1419999999998</v>
+      </c>
+      <c r="K58">
+        <v>1055.296</v>
+      </c>
+      <c r="L58">
+        <v>0</v>
+      </c>
+      <c r="M58">
+        <v>0</v>
+      </c>
+      <c r="N58">
+        <v>2392.3449999999998</v>
+      </c>
+      <c r="O58">
+        <v>11255.89</v>
+      </c>
+      <c r="P58">
+        <v>8260.9310000000005</v>
+      </c>
+      <c r="Q58">
+        <v>21.408999999999999</v>
+      </c>
+      <c r="R58">
+        <v>42004</v>
+      </c>
+      <c r="S58">
+        <v>2269</v>
+      </c>
+      <c r="T58">
+        <v>4005.8829999999998</v>
+      </c>
+      <c r="U58">
+        <v>172.81200000000001</v>
+      </c>
+      <c r="V58">
+        <v>415.26900000000001</v>
+      </c>
+      <c r="W58">
+        <v>-122.76600000000001</v>
+      </c>
+      <c r="X58">
+        <v>980.22699999999998</v>
+      </c>
+      <c r="Y58">
+        <v>0</v>
+      </c>
+      <c r="Z58">
+        <v>-3.8180000000000001</v>
+      </c>
+      <c r="AA58">
+        <v>94.543999999999997</v>
+      </c>
+    </row>
+    <row r="59" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A59" s="1">
+        <v>42094</v>
+      </c>
+      <c r="B59" t="s">
+        <v>84</v>
+      </c>
+      <c r="C59">
+        <v>60.8</v>
+      </c>
+      <c r="D59">
+        <v>1805.306</v>
+      </c>
+      <c r="E59">
+        <v>628.06399999999996</v>
+      </c>
+      <c r="F59">
+        <v>461.44200000000001</v>
+      </c>
+      <c r="G59">
+        <v>1321.9490000000001</v>
+      </c>
+      <c r="H59">
+        <v>15533.073</v>
+      </c>
+      <c r="I59">
+        <v>721.53499999999997</v>
+      </c>
+      <c r="J59">
+        <v>7339.7659999999996</v>
+      </c>
+      <c r="K59">
+        <v>825.47500000000002</v>
+      </c>
+      <c r="L59">
+        <v>-229.821</v>
+      </c>
+      <c r="M59">
+        <v>-1.948</v>
+      </c>
+      <c r="N59">
+        <v>2548.7199999999998</v>
+      </c>
+      <c r="O59">
+        <v>11639.785</v>
+      </c>
+      <c r="P59">
+        <v>8835.8379999999997</v>
+      </c>
+      <c r="Q59">
+        <v>66.599000000000004</v>
+      </c>
+      <c r="R59">
+        <v>42094</v>
+      </c>
+      <c r="S59">
+        <v>0</v>
+      </c>
+      <c r="T59">
+        <v>3893.288</v>
+      </c>
+      <c r="U59">
+        <v>239.411</v>
+      </c>
+      <c r="V59">
+        <v>39.423000000000002</v>
+      </c>
+      <c r="W59">
+        <v>-126.053</v>
+      </c>
+      <c r="X59">
+        <v>360.95100000000002</v>
+      </c>
+      <c r="Y59">
+        <v>0</v>
+      </c>
+      <c r="Z59">
+        <v>9.9540000000000006</v>
+      </c>
+      <c r="AA59">
+        <v>60.8</v>
+      </c>
+    </row>
+    <row r="60" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A60" s="1">
+        <v>42185</v>
+      </c>
+      <c r="B60" t="s">
+        <v>85</v>
+      </c>
+      <c r="C60">
+        <v>76.504999999999995</v>
+      </c>
+      <c r="D60">
+        <v>2128.0520000000001</v>
+      </c>
+      <c r="E60">
+        <v>684.899</v>
+      </c>
+      <c r="F60">
+        <v>524.95899999999995</v>
+      </c>
+      <c r="G60">
+        <v>1263.796</v>
+      </c>
+      <c r="H60">
+        <v>15651.18</v>
+      </c>
+      <c r="I60">
+        <v>694.91399999999999</v>
+      </c>
+      <c r="J60">
+        <v>7291.4</v>
+      </c>
+      <c r="K60">
+        <v>870.48400000000004</v>
+      </c>
+      <c r="L60">
+        <v>0</v>
+      </c>
+      <c r="M60">
+        <v>0</v>
+      </c>
+      <c r="N60">
+        <v>2606.5619999999999</v>
+      </c>
+      <c r="O60">
+        <v>11651.821</v>
+      </c>
+      <c r="P60">
+        <v>8822.5339999999997</v>
+      </c>
+      <c r="Q60">
+        <v>-13.218</v>
+      </c>
+      <c r="R60">
+        <v>42185</v>
+      </c>
+      <c r="S60">
+        <v>0</v>
+      </c>
+      <c r="T60">
+        <v>3999.3589999999999</v>
+      </c>
+      <c r="U60">
+        <v>226.19300000000001</v>
+      </c>
+      <c r="V60">
+        <v>294.87900000000002</v>
+      </c>
+      <c r="W60">
+        <v>-126.363</v>
+      </c>
+      <c r="X60">
+        <v>13.9</v>
+      </c>
+      <c r="Y60">
+        <v>0</v>
+      </c>
+      <c r="Z60">
+        <v>-24.361999999999998</v>
+      </c>
+      <c r="AA60">
+        <v>76.504999999999995</v>
+      </c>
+    </row>
+    <row r="61" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A61" s="1">
+        <v>42277</v>
+      </c>
+      <c r="B61" t="s">
+        <v>86</v>
+      </c>
+      <c r="C61">
+        <v>82.156999999999996</v>
+      </c>
+      <c r="D61">
+        <v>1898.9459999999999</v>
+      </c>
+      <c r="E61">
+        <v>586.15700000000004</v>
+      </c>
+      <c r="F61">
+        <v>538.13699999999994</v>
+      </c>
+      <c r="G61">
+        <v>952.79</v>
+      </c>
+      <c r="H61">
+        <v>15508.298000000001</v>
+      </c>
+      <c r="I61">
+        <v>620.56799999999998</v>
+      </c>
+      <c r="J61">
+        <v>7773.7560000000003</v>
+      </c>
+      <c r="K61">
+        <v>287.27199999999999</v>
+      </c>
+      <c r="L61">
+        <v>0</v>
+      </c>
+      <c r="M61">
+        <v>0</v>
+      </c>
+      <c r="N61">
+        <v>1960.8209999999999</v>
+      </c>
+      <c r="O61">
+        <v>11470.993</v>
+      </c>
+      <c r="P61">
+        <v>8735.3259999999991</v>
+      </c>
+      <c r="Q61">
+        <v>-187.822</v>
+      </c>
+      <c r="R61">
+        <v>42277</v>
+      </c>
+      <c r="S61">
+        <v>0</v>
+      </c>
+      <c r="T61">
+        <v>4037.3049999999998</v>
+      </c>
+      <c r="U61">
+        <v>38.371000000000002</v>
+      </c>
+      <c r="V61">
+        <v>360.72300000000001</v>
+      </c>
+      <c r="W61">
+        <v>-128.08199999999999</v>
+      </c>
+      <c r="X61">
+        <v>-262.13600000000002</v>
+      </c>
+      <c r="Y61">
+        <v>0</v>
+      </c>
+      <c r="Z61">
+        <v>11.978999999999999</v>
+      </c>
+      <c r="AA61">
+        <v>82.156999999999996</v>
+      </c>
+    </row>
+    <row r="62" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A62" s="1">
+        <v>42369</v>
+      </c>
+      <c r="B62" t="s">
+        <v>87</v>
+      </c>
+      <c r="C62">
+        <v>25.515000000000001</v>
+      </c>
+      <c r="D62">
+        <v>1930.902</v>
+      </c>
+      <c r="E62">
+        <v>593.97900000000004</v>
+      </c>
+      <c r="F62">
+        <v>597.61599999999999</v>
+      </c>
+      <c r="G62">
+        <v>975.21</v>
+      </c>
+      <c r="H62">
+        <v>15446.111000000001</v>
+      </c>
+      <c r="I62">
+        <v>615.98199999999997</v>
+      </c>
+      <c r="J62">
+        <v>8323.5820000000003</v>
+      </c>
+      <c r="K62">
+        <v>546.34</v>
+      </c>
+      <c r="L62">
+        <v>0</v>
+      </c>
+      <c r="M62">
+        <v>0</v>
+      </c>
+      <c r="N62">
+        <v>1638.2660000000001</v>
+      </c>
+      <c r="O62">
+        <v>11679.775</v>
+      </c>
+      <c r="P62">
+        <v>8990.5079999999998</v>
+      </c>
+      <c r="Q62">
+        <v>59.247999999999998</v>
+      </c>
+      <c r="R62">
+        <v>42369</v>
+      </c>
+      <c r="S62">
+        <v>2364</v>
+      </c>
+      <c r="T62">
+        <v>3766.3359999999998</v>
+      </c>
+      <c r="U62">
+        <v>97.619</v>
+      </c>
+      <c r="V62">
+        <v>311.91199999999998</v>
+      </c>
+      <c r="W62">
+        <v>-128.69900000000001</v>
+      </c>
+      <c r="X62">
+        <v>-4.1260000000000003</v>
+      </c>
+      <c r="Y62">
+        <v>0</v>
+      </c>
+      <c r="Z62">
+        <v>8.8040000000000003</v>
+      </c>
+      <c r="AA62">
+        <v>25.515000000000001</v>
+      </c>
+    </row>
+    <row r="63" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A63" s="1">
+        <v>42460</v>
+      </c>
+      <c r="B63" t="s">
+        <v>88</v>
+      </c>
+      <c r="C63">
+        <v>83.445999999999998</v>
+      </c>
+      <c r="D63">
+        <v>1774.4590000000001</v>
+      </c>
+      <c r="E63">
+        <v>521.43600000000004</v>
+      </c>
+      <c r="F63">
+        <v>578.721</v>
+      </c>
+      <c r="G63">
+        <v>991.02099999999996</v>
+      </c>
+      <c r="H63">
+        <v>15501.148999999999</v>
+      </c>
+      <c r="I63">
+        <v>522.31700000000001</v>
+      </c>
+      <c r="J63">
+        <v>8320.4509999999991</v>
+      </c>
+      <c r="K63">
+        <v>444.56700000000001</v>
+      </c>
+      <c r="L63">
+        <v>-101.773</v>
+      </c>
+      <c r="M63">
+        <v>-652.14800000000002</v>
+      </c>
+      <c r="N63">
+        <v>1764.46</v>
+      </c>
+      <c r="O63">
+        <v>11855.642</v>
+      </c>
+      <c r="P63">
+        <v>9225.6679999999997</v>
+      </c>
+      <c r="Q63">
+        <v>39.6</v>
+      </c>
+      <c r="R63">
+        <v>42460</v>
+      </c>
+      <c r="S63">
+        <v>0</v>
+      </c>
+      <c r="T63">
+        <v>3645.5070000000001</v>
+      </c>
+      <c r="U63">
+        <v>137.21899999999999</v>
+      </c>
+      <c r="V63">
+        <v>230.678</v>
+      </c>
+      <c r="W63">
+        <v>-129.23500000000001</v>
+      </c>
+      <c r="X63">
+        <v>-21.131</v>
+      </c>
+      <c r="Y63">
+        <v>0</v>
+      </c>
+      <c r="Z63">
+        <v>11.606</v>
+      </c>
+      <c r="AA63">
+        <v>83.445999999999998</v>
+      </c>
+    </row>
+    <row r="64" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A64" s="1">
+        <v>42551</v>
+      </c>
+      <c r="B64" t="s">
+        <v>89</v>
+      </c>
+      <c r="C64">
+        <v>85.944000000000003</v>
+      </c>
+      <c r="D64">
+        <v>2134.107</v>
+      </c>
+      <c r="E64">
+        <v>672.05899999999997</v>
+      </c>
+      <c r="F64">
+        <v>606.78399999999999</v>
+      </c>
+      <c r="G64">
+        <v>1281.1880000000001</v>
+      </c>
+      <c r="H64">
+        <v>15822.9</v>
+      </c>
+      <c r="I64">
+        <v>697.83299999999997</v>
+      </c>
+      <c r="J64">
+        <v>8320.277</v>
+      </c>
+      <c r="K64">
+        <v>576.30700000000002</v>
+      </c>
+      <c r="L64">
+        <v>0</v>
+      </c>
+      <c r="M64">
+        <v>0</v>
+      </c>
+      <c r="N64">
+        <v>2188.4209999999998</v>
+      </c>
+      <c r="O64">
+        <v>12330.723</v>
+      </c>
+      <c r="P64">
+        <v>9357.2340000000004</v>
+      </c>
+      <c r="Q64">
+        <v>43.634999999999998</v>
+      </c>
+      <c r="R64">
+        <v>42551</v>
+      </c>
+      <c r="S64">
+        <v>0</v>
+      </c>
+      <c r="T64">
+        <v>3492.1770000000001</v>
+      </c>
+      <c r="U64">
+        <v>180.85400000000001</v>
+      </c>
+      <c r="V64">
+        <v>300.65600000000001</v>
+      </c>
+      <c r="W64">
+        <v>-129.273</v>
+      </c>
+      <c r="X64">
+        <v>-128.489</v>
+      </c>
+      <c r="Y64">
+        <v>0</v>
+      </c>
+      <c r="Z64">
+        <v>4.9370000000000003</v>
+      </c>
+      <c r="AA64">
+        <v>85.944000000000003</v>
+      </c>
+    </row>
+    <row r="65" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A65" s="1">
+        <v>42643</v>
+      </c>
+      <c r="B65" t="s">
+        <v>90</v>
+      </c>
+      <c r="C65">
+        <v>92.144000000000005</v>
+      </c>
+      <c r="D65">
+        <v>2357.9070000000002</v>
+      </c>
+      <c r="E65">
+        <v>737.22400000000005</v>
+      </c>
+      <c r="F65">
+        <v>606.31399999999996</v>
+      </c>
+      <c r="G65">
+        <v>1369.2909999999999</v>
+      </c>
+      <c r="H65">
+        <v>15982.035</v>
+      </c>
+      <c r="I65">
+        <v>711.81700000000001</v>
+      </c>
+      <c r="J65">
+        <v>8320.1440000000002</v>
+      </c>
+      <c r="K65">
+        <v>693.5</v>
+      </c>
+      <c r="L65">
+        <v>0</v>
+      </c>
+      <c r="M65">
+        <v>0</v>
+      </c>
+      <c r="N65">
+        <v>2341.9639999999999</v>
+      </c>
+      <c r="O65">
+        <v>12541.821</v>
+      </c>
+      <c r="P65">
+        <v>9474.2939999999999</v>
+      </c>
+      <c r="Q65">
+        <v>56.555999999999997</v>
+      </c>
+      <c r="R65">
+        <v>42643</v>
+      </c>
+      <c r="S65">
+        <v>0</v>
+      </c>
+      <c r="T65">
+        <v>3440.2139999999999</v>
+      </c>
+      <c r="U65">
+        <v>237.41</v>
+      </c>
+      <c r="V65">
+        <v>390.46600000000001</v>
+      </c>
+      <c r="W65">
+        <v>-129.595</v>
+      </c>
+      <c r="X65">
+        <v>-147.80099999999999</v>
+      </c>
+      <c r="Y65">
+        <v>0</v>
+      </c>
+      <c r="Z65">
+        <v>-28.702000000000002</v>
+      </c>
+      <c r="AA65">
+        <v>92.144000000000005</v>
+      </c>
+    </row>
+    <row r="66" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A66" s="1">
+        <v>42735</v>
+      </c>
+      <c r="B66" t="s">
+        <v>91</v>
+      </c>
+      <c r="C66">
+        <v>90.504999999999995</v>
+      </c>
+      <c r="D66">
+        <v>2654.4609999999998</v>
+      </c>
+      <c r="E66">
+        <v>872.43</v>
+      </c>
+      <c r="F66">
+        <v>632.99099999999999</v>
+      </c>
+      <c r="G66">
+        <v>1429.684</v>
+      </c>
+      <c r="H66">
+        <v>16138.751</v>
+      </c>
+      <c r="I66">
+        <v>874.73099999999999</v>
+      </c>
+      <c r="J66">
+        <v>7919.9960000000001</v>
+      </c>
+      <c r="K66">
+        <v>1110.277</v>
+      </c>
+      <c r="L66">
+        <v>0</v>
+      </c>
+      <c r="M66">
+        <v>0</v>
+      </c>
+      <c r="N66">
+        <v>2836.701</v>
+      </c>
+      <c r="O66">
+        <v>12709.835999999999</v>
+      </c>
+      <c r="P66">
+        <v>9453.7180000000008</v>
+      </c>
+      <c r="Q66">
+        <v>11.465</v>
+      </c>
+      <c r="R66">
+        <v>42735</v>
+      </c>
+      <c r="S66">
+        <v>2384</v>
+      </c>
+      <c r="T66">
+        <v>3428.915</v>
+      </c>
+      <c r="U66">
+        <v>248.875</v>
+      </c>
+      <c r="V66">
+        <v>431.42</v>
+      </c>
+      <c r="W66">
+        <v>-129.49799999999999</v>
+      </c>
+      <c r="X66">
+        <v>-289.09800000000001</v>
+      </c>
+      <c r="Y66">
+        <v>0</v>
+      </c>
+      <c r="Z66">
+        <v>-4.0720000000000001</v>
+      </c>
+      <c r="AA66">
+        <v>90.504999999999995</v>
+      </c>
+    </row>
+    <row r="67" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A67" s="1">
+        <v>42825</v>
+      </c>
+      <c r="B67" t="s">
+        <v>92</v>
+      </c>
+      <c r="C67">
+        <v>87.361000000000004</v>
+      </c>
+      <c r="D67">
+        <v>2749.6109999999999</v>
+      </c>
+      <c r="E67">
+        <v>734.84400000000005</v>
+      </c>
+      <c r="F67">
+        <v>605.76800000000003</v>
+      </c>
+      <c r="G67">
+        <v>1378.4469999999999</v>
+      </c>
+      <c r="H67">
+        <v>16067.558000000001</v>
+      </c>
+      <c r="I67">
+        <v>703.27800000000002</v>
+      </c>
+      <c r="J67">
+        <v>7919.826</v>
+      </c>
+      <c r="K67">
+        <v>1290.729</v>
+      </c>
+      <c r="L67">
+        <v>0</v>
+      </c>
+      <c r="M67">
+        <v>-1.9510000000000001</v>
+      </c>
+      <c r="N67">
+        <v>2731.9740000000002</v>
+      </c>
+      <c r="O67">
+        <v>12598.045</v>
+      </c>
+      <c r="P67">
+        <v>9632.5210000000006</v>
+      </c>
+      <c r="Q67">
+        <v>61.933</v>
+      </c>
+      <c r="R67">
+        <v>42825</v>
+      </c>
+      <c r="S67">
+        <v>0</v>
+      </c>
+      <c r="T67">
+        <v>3469.5129999999999</v>
+      </c>
+      <c r="U67">
+        <v>310.80799999999999</v>
+      </c>
+      <c r="V67">
+        <v>269.08999999999997</v>
+      </c>
+      <c r="W67">
+        <v>-129.84200000000001</v>
+      </c>
+      <c r="X67">
+        <v>-97.694000000000003</v>
+      </c>
+      <c r="Y67">
+        <v>0</v>
+      </c>
+      <c r="Z67">
+        <v>2.9780000000000002</v>
+      </c>
+      <c r="AA67">
+        <v>87.361000000000004</v>
+      </c>
+    </row>
+    <row r="68" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A68" s="1">
+        <v>42916</v>
+      </c>
+      <c r="B68" t="s">
+        <v>93</v>
+      </c>
+      <c r="C68">
+        <v>71.692999999999998</v>
+      </c>
+      <c r="D68">
+        <v>2725.7719999999999</v>
+      </c>
+      <c r="E68">
+        <v>749.34500000000003</v>
+      </c>
+      <c r="F68">
+        <v>634.75</v>
+      </c>
+      <c r="G68">
+        <v>1447.8109999999999</v>
+      </c>
+      <c r="H68">
+        <v>16672.922999999999</v>
+      </c>
+      <c r="I68">
+        <v>696.83399999999995</v>
+      </c>
+      <c r="J68">
+        <v>7835.6059999999998</v>
+      </c>
+      <c r="K68">
+        <v>1274.4069999999999</v>
+      </c>
+      <c r="L68">
+        <v>0</v>
+      </c>
+      <c r="M68">
+        <v>0</v>
+      </c>
+      <c r="N68">
+        <v>2860.5189999999998</v>
+      </c>
+      <c r="O68">
+        <v>11107.691999999999</v>
+      </c>
+      <c r="P68">
+        <v>9621.5879999999997</v>
+      </c>
+      <c r="Q68">
+        <v>21.562999999999999</v>
+      </c>
+      <c r="R68">
+        <v>42916</v>
+      </c>
+      <c r="S68">
+        <v>0</v>
+      </c>
+      <c r="T68">
+        <v>5565.2309999999998</v>
+      </c>
+      <c r="U68">
+        <v>332.37099999999998</v>
+      </c>
+      <c r="V68">
+        <v>373.80099999999999</v>
+      </c>
+      <c r="W68">
+        <v>-129.916</v>
+      </c>
+      <c r="X68">
+        <v>-277.97000000000003</v>
+      </c>
+      <c r="Y68">
+        <v>0</v>
+      </c>
+      <c r="Z68">
+        <v>7.3049999999999997</v>
+      </c>
+      <c r="AA68">
+        <v>71.692999999999998</v>
+      </c>
+    </row>
+    <row r="69" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A69" s="1">
+        <v>43008</v>
+      </c>
+      <c r="B69" t="s">
+        <v>94</v>
+      </c>
+      <c r="C69">
+        <v>165.74199999999999</v>
+      </c>
+      <c r="D69">
+        <v>2906.366</v>
+      </c>
+      <c r="E69">
+        <v>939.59500000000003</v>
+      </c>
+      <c r="F69">
+        <v>676.95</v>
+      </c>
+      <c r="G69">
+        <v>1518.865</v>
+      </c>
+      <c r="H69">
+        <v>16764.841</v>
+      </c>
+      <c r="I69">
+        <v>922.82</v>
+      </c>
+      <c r="J69">
+        <v>8092</v>
+      </c>
+      <c r="K69">
+        <v>932.25</v>
+      </c>
+      <c r="L69">
+        <v>0</v>
+      </c>
+      <c r="M69">
+        <v>0</v>
+      </c>
+      <c r="N69">
+        <v>2741.08</v>
+      </c>
+      <c r="O69">
+        <v>11248.458000000001</v>
+      </c>
+      <c r="P69">
+        <v>9456.9</v>
+      </c>
+      <c r="Q69">
+        <v>-320.69499999999999</v>
+      </c>
+      <c r="R69">
+        <v>43008</v>
+      </c>
+      <c r="S69">
+        <v>0</v>
+      </c>
+      <c r="T69">
+        <v>5516.3829999999998</v>
+      </c>
+      <c r="U69">
+        <v>11.676</v>
+      </c>
+      <c r="V69">
+        <v>293.10500000000002</v>
+      </c>
+      <c r="W69">
+        <v>0</v>
+      </c>
+      <c r="X69">
+        <v>-402.93400000000003</v>
+      </c>
+      <c r="Y69">
+        <v>0</v>
+      </c>
+      <c r="Z69">
+        <v>-76.358999999999995</v>
+      </c>
+      <c r="AA69">
+        <v>165.74199999999999</v>
+      </c>
+    </row>
+    <row r="70" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A70" s="1">
+        <v>43100</v>
+      </c>
+      <c r="B70" t="s">
+        <v>95</v>
+      </c>
+      <c r="C70">
+        <v>63.045000000000002</v>
+      </c>
+      <c r="D70">
+        <v>3792.1579999999999</v>
+      </c>
+      <c r="E70">
+        <v>1202.951</v>
+      </c>
+      <c r="F70">
+        <v>718.39400000000001</v>
+      </c>
+      <c r="G70">
+        <v>1764.4580000000001</v>
+      </c>
+      <c r="H70">
+        <v>16845.937000000002</v>
+      </c>
+      <c r="I70">
+        <v>1140.5709999999999</v>
+      </c>
+      <c r="J70">
+        <v>8091.6289999999999</v>
+      </c>
+      <c r="K70">
+        <v>614.673</v>
+      </c>
+      <c r="L70">
+        <v>0</v>
+      </c>
+      <c r="M70">
+        <v>0</v>
+      </c>
+      <c r="N70">
+        <v>2667.335</v>
+      </c>
+      <c r="O70">
+        <v>11160.584999999999</v>
+      </c>
+      <c r="P70">
+        <v>9138.9519999999993</v>
+      </c>
+      <c r="Q70">
+        <v>25.516999999999999</v>
+      </c>
+      <c r="R70">
+        <v>43100</v>
+      </c>
+      <c r="S70">
+        <v>2470</v>
+      </c>
+      <c r="T70">
+        <v>5685.3519999999999</v>
+      </c>
+      <c r="U70">
+        <v>37.192999999999998</v>
+      </c>
+      <c r="V70">
+        <v>379.416</v>
+      </c>
+      <c r="W70">
+        <v>0</v>
+      </c>
+      <c r="X70">
+        <v>-180.863</v>
+      </c>
+      <c r="Y70">
+        <v>0</v>
+      </c>
+      <c r="Z70">
+        <v>6.9569999999999999</v>
+      </c>
+      <c r="AA70">
+        <v>63.045000000000002</v>
+      </c>
+    </row>
+    <row r="71" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A71" s="1">
+        <v>43190</v>
+      </c>
+      <c r="B71" t="s">
+        <v>96</v>
+      </c>
+      <c r="C71">
+        <v>264.50799999999998</v>
+      </c>
+      <c r="D71">
+        <v>3102.0770000000002</v>
+      </c>
+      <c r="E71">
+        <v>844.21799999999996</v>
+      </c>
+      <c r="F71">
+        <v>734.05100000000004</v>
+      </c>
+      <c r="G71">
+        <v>1290.7449999999999</v>
+      </c>
+      <c r="H71">
+        <v>16432.347000000002</v>
+      </c>
+      <c r="I71">
+        <v>773.05399999999997</v>
+      </c>
+      <c r="J71">
+        <v>7102.92</v>
+      </c>
+      <c r="K71">
+        <v>0</v>
+      </c>
+      <c r="L71">
+        <v>-614.673</v>
+      </c>
+      <c r="M71">
+        <v>-501.91300000000001</v>
+      </c>
+      <c r="N71">
+        <v>2050.8380000000002</v>
+      </c>
+      <c r="O71">
+        <v>9563.0949999999993</v>
+      </c>
+      <c r="P71">
+        <v>8035.57</v>
+      </c>
+      <c r="Q71">
+        <v>-19.719000000000001</v>
+      </c>
+      <c r="R71">
+        <v>43190</v>
+      </c>
+      <c r="S71">
+        <v>0</v>
+      </c>
+      <c r="T71">
+        <v>6869.2520000000004</v>
+      </c>
+      <c r="U71">
+        <v>17.474</v>
+      </c>
+      <c r="V71">
+        <v>495.32100000000003</v>
+      </c>
+      <c r="W71">
+        <v>-316.40800000000002</v>
+      </c>
+      <c r="X71">
+        <v>-259.38799999999998</v>
+      </c>
+      <c r="Y71">
+        <v>0</v>
+      </c>
+      <c r="Z71">
+        <v>8.5739999999999998</v>
+      </c>
+      <c r="AA71">
+        <v>264.50799999999998</v>
+      </c>
+    </row>
+    <row r="72" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A72" s="1">
+        <v>43281</v>
+      </c>
+      <c r="B72" t="s">
+        <v>97</v>
+      </c>
+      <c r="C72">
+        <v>281.048</v>
+      </c>
+      <c r="D72">
+        <v>2960.529</v>
+      </c>
+      <c r="E72">
+        <v>936.06399999999996</v>
+      </c>
+      <c r="F72">
+        <v>784.71100000000001</v>
+      </c>
+      <c r="G72">
+        <v>1433.6869999999999</v>
+      </c>
+      <c r="H72">
+        <v>16913.72</v>
+      </c>
+      <c r="I72">
+        <v>1027.4670000000001</v>
+      </c>
+      <c r="J72">
+        <v>7096.5360000000001</v>
+      </c>
+      <c r="K72">
+        <v>156</v>
+      </c>
+      <c r="L72">
+        <v>0</v>
+      </c>
+      <c r="M72">
+        <v>0</v>
+      </c>
+      <c r="N72">
+        <v>2572.0810000000001</v>
+      </c>
+      <c r="O72">
+        <v>10075.236999999999</v>
+      </c>
+      <c r="P72">
+        <v>8185.1859999999997</v>
+      </c>
+      <c r="Q72">
+        <v>-2.1789999999999998</v>
+      </c>
+      <c r="R72">
+        <v>43281</v>
+      </c>
+      <c r="S72">
+        <v>0</v>
+      </c>
+      <c r="T72">
+        <v>6838.4830000000002</v>
+      </c>
+      <c r="U72">
+        <v>15.295</v>
+      </c>
+      <c r="V72">
+        <v>507.649</v>
+      </c>
+      <c r="W72">
+        <v>-327.08499999999998</v>
+      </c>
+      <c r="X72">
+        <v>-164.07900000000001</v>
+      </c>
+      <c r="Y72">
+        <v>0</v>
+      </c>
+      <c r="Z72">
+        <v>4.72</v>
+      </c>
+      <c r="AA72">
+        <v>281.048</v>
+      </c>
+    </row>
+    <row r="73" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A73" s="1">
+        <v>43373</v>
+      </c>
+      <c r="B73" t="s">
+        <v>98</v>
+      </c>
+      <c r="C73">
+        <v>313.25900000000001</v>
+      </c>
+      <c r="D73">
+        <v>3393.89</v>
+      </c>
+      <c r="E73">
+        <v>1087.9749999999999</v>
+      </c>
+      <c r="F73">
+        <v>833.125</v>
+      </c>
+      <c r="G73">
+        <v>1807.9079999999999</v>
+      </c>
+      <c r="H73">
+        <v>17911.313999999998</v>
+      </c>
+      <c r="I73">
+        <v>1339.5070000000001</v>
+      </c>
+      <c r="J73">
+        <v>8325.7080000000005</v>
+      </c>
+      <c r="K73">
+        <v>120</v>
+      </c>
+      <c r="L73">
+        <v>0</v>
+      </c>
+      <c r="M73">
+        <v>0</v>
+      </c>
+      <c r="N73">
+        <v>2450.2060000000001</v>
+      </c>
+      <c r="O73">
+        <v>11258.556</v>
+      </c>
+      <c r="P73">
+        <v>8953.3580000000002</v>
+      </c>
+      <c r="Q73">
+        <v>69.168999999999997</v>
+      </c>
+      <c r="R73">
+        <v>43373</v>
+      </c>
+      <c r="S73">
+        <v>0</v>
+      </c>
+      <c r="T73">
+        <v>6652.7579999999998</v>
+      </c>
+      <c r="U73">
+        <v>84.463999999999999</v>
+      </c>
+      <c r="V73">
+        <v>513.48</v>
+      </c>
+      <c r="W73">
+        <v>-339.57499999999999</v>
+      </c>
+      <c r="X73">
+        <v>244.108</v>
+      </c>
+      <c r="Y73">
+        <v>0</v>
+      </c>
+      <c r="Z73">
+        <v>5.4880000000000004</v>
+      </c>
+      <c r="AA73">
+        <v>313.25900000000001</v>
+      </c>
+    </row>
+    <row r="74" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A74" s="1">
+        <v>43465</v>
+      </c>
+      <c r="B74" t="s">
+        <v>99</v>
+      </c>
+      <c r="C74">
+        <v>292.88799999999998</v>
+      </c>
+      <c r="D74">
+        <v>3136.7</v>
+      </c>
+      <c r="E74">
+        <v>820.65800000000002</v>
+      </c>
+      <c r="F74">
+        <v>818.601</v>
+      </c>
+      <c r="G74">
+        <v>1398.6320000000001</v>
+      </c>
+      <c r="H74">
+        <v>18231.670999999998</v>
+      </c>
+      <c r="I74">
+        <v>1116.337</v>
+      </c>
+      <c r="J74">
+        <v>8957.5820000000003</v>
+      </c>
+      <c r="K74">
+        <v>0</v>
+      </c>
+      <c r="L74">
+        <v>0</v>
+      </c>
+      <c r="M74">
+        <v>0</v>
+      </c>
+      <c r="N74">
+        <v>2108.4360000000001</v>
+      </c>
+      <c r="O74">
+        <v>11652.128000000001</v>
+      </c>
+      <c r="P74">
+        <v>9508.2530000000006</v>
+      </c>
+      <c r="Q74">
+        <v>-72.489000000000004</v>
+      </c>
+      <c r="R74">
+        <v>43465</v>
+      </c>
+      <c r="S74">
+        <v>2684</v>
+      </c>
+      <c r="T74">
+        <v>6579.5429999999997</v>
+      </c>
+      <c r="U74">
+        <v>11.975</v>
+      </c>
+      <c r="V74">
+        <v>670.26900000000001</v>
+      </c>
+      <c r="W74">
+        <v>0</v>
+      </c>
+      <c r="X74">
+        <v>82.31</v>
+      </c>
+      <c r="Y74">
+        <v>26.244</v>
+      </c>
+      <c r="Z74">
+        <v>6.2270000000000003</v>
+      </c>
+      <c r="AA74">
+        <v>292.88799999999998</v>
+      </c>
+    </row>
+    <row r="75" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A75" s="1">
+        <v>43555</v>
+      </c>
+      <c r="B75" t="s">
+        <v>100</v>
+      </c>
+      <c r="C75">
+        <v>337.20800000000003</v>
+      </c>
+      <c r="D75">
+        <v>2779.9580000000001</v>
+      </c>
+      <c r="E75">
+        <v>814.16899999999998</v>
+      </c>
+      <c r="F75">
+        <v>823.58100000000002</v>
+      </c>
+      <c r="G75">
+        <v>1342.779</v>
+      </c>
+      <c r="H75">
+        <v>18934.325000000001</v>
+      </c>
+      <c r="I75">
+        <v>1027.3219999999999</v>
+      </c>
+      <c r="J75">
+        <v>10149.611000000001</v>
+      </c>
+      <c r="K75">
+        <v>0</v>
+      </c>
+      <c r="L75">
+        <v>0</v>
+      </c>
+      <c r="M75">
+        <v>-501.91300000000001</v>
+      </c>
+      <c r="N75">
+        <v>1689.6690000000001</v>
+      </c>
+      <c r="O75">
+        <v>12492.319</v>
+      </c>
+      <c r="P75">
+        <v>10506.337</v>
+      </c>
+      <c r="Q75">
+        <v>15.839</v>
+      </c>
+      <c r="R75">
+        <v>43555</v>
+      </c>
+      <c r="S75">
+        <v>0</v>
+      </c>
+      <c r="T75">
+        <v>6442.0060000000003</v>
+      </c>
+      <c r="U75">
+        <v>27.814</v>
+      </c>
+      <c r="V75">
+        <v>353.60599999999999</v>
+      </c>
+      <c r="W75">
+        <v>-354.20299999999997</v>
+      </c>
+      <c r="X75">
+        <v>527.06200000000001</v>
+      </c>
+      <c r="Y75">
+        <v>38.055999999999997</v>
+      </c>
+      <c r="Z75">
+        <v>13.526999999999999</v>
+      </c>
+      <c r="AA75">
+        <v>337.20800000000003</v>
+      </c>
+    </row>
+    <row r="76" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A76" s="1">
+        <v>43646</v>
+      </c>
+      <c r="B76" t="s">
+        <v>101</v>
+      </c>
+      <c r="C76">
+        <v>311.96300000000002</v>
+      </c>
+      <c r="D76">
+        <v>2457.5749999999998</v>
+      </c>
+      <c r="E76">
+        <v>670.58900000000006</v>
+      </c>
+      <c r="F76">
+        <v>831.78099999999995</v>
+      </c>
+      <c r="G76">
+        <v>1401.17</v>
+      </c>
+      <c r="H76">
+        <v>19751.594000000001</v>
+      </c>
+      <c r="I76">
+        <v>907.37699999999995</v>
+      </c>
+      <c r="J76">
+        <v>10927.945</v>
+      </c>
+      <c r="K76">
+        <v>0</v>
+      </c>
+      <c r="L76">
+        <v>0</v>
+      </c>
+      <c r="M76">
+        <v>0</v>
+      </c>
+      <c r="N76">
+        <v>1737.373</v>
+      </c>
+      <c r="O76">
+        <v>13403.458000000001</v>
+      </c>
+      <c r="P76">
+        <v>11363.449000000001</v>
+      </c>
+      <c r="Q76">
+        <v>245.583</v>
+      </c>
+      <c r="R76">
+        <v>43646</v>
+      </c>
+      <c r="S76">
+        <v>0</v>
+      </c>
+      <c r="T76">
+        <v>6348.1360000000004</v>
+      </c>
+      <c r="U76">
+        <v>273.39699999999999</v>
+      </c>
+      <c r="V76">
+        <v>614.34500000000003</v>
+      </c>
+      <c r="W76">
+        <v>-357.33100000000002</v>
+      </c>
+      <c r="X76">
+        <v>398.47</v>
+      </c>
+      <c r="Y76">
+        <v>39.258000000000003</v>
+      </c>
+      <c r="Z76">
+        <v>63.722000000000001</v>
+      </c>
+      <c r="AA76">
+        <v>311.96300000000002</v>
+      </c>
+    </row>
+    <row r="77" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A77" s="1">
+        <v>43738</v>
+      </c>
+      <c r="B77" t="s">
+        <v>102</v>
+      </c>
+      <c r="C77">
+        <v>309.15499999999997</v>
+      </c>
+      <c r="D77">
+        <v>2263.2280000000001</v>
+      </c>
+      <c r="E77">
+        <v>721.10799999999995</v>
+      </c>
+      <c r="F77">
+        <v>848.7</v>
+      </c>
+      <c r="G77">
+        <v>1967.585</v>
+      </c>
+      <c r="H77">
+        <v>21335.906999999999</v>
+      </c>
+      <c r="I77">
+        <v>1129.8489999999999</v>
+      </c>
+      <c r="J77">
+        <v>12741.645</v>
+      </c>
+      <c r="K77">
+        <v>0</v>
+      </c>
+      <c r="L77">
+        <v>0</v>
+      </c>
+      <c r="M77">
+        <v>0</v>
+      </c>
+      <c r="N77">
+        <v>1567.152</v>
+      </c>
+      <c r="O77">
+        <v>15117.001</v>
+      </c>
+      <c r="P77">
+        <v>12807.083000000001</v>
+      </c>
+      <c r="Q77">
+        <v>399.91199999999998</v>
+      </c>
+      <c r="R77">
+        <v>43738</v>
+      </c>
+      <c r="S77">
+        <v>0</v>
+      </c>
+      <c r="T77">
+        <v>6218.9059999999999</v>
+      </c>
+      <c r="U77">
+        <v>673.30899999999997</v>
+      </c>
+      <c r="V77">
+        <v>358.89400000000001</v>
+      </c>
+      <c r="W77">
+        <v>-367.84500000000003</v>
+      </c>
+      <c r="X77">
+        <v>1056.8309999999999</v>
+      </c>
+      <c r="Y77">
+        <v>38.591000000000001</v>
+      </c>
+      <c r="Z77">
+        <v>4.9219999999999997</v>
+      </c>
+      <c r="AA77">
+        <v>309.15499999999997</v>
+      </c>
+    </row>
+    <row r="78" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A78" s="1">
+        <v>43830</v>
+      </c>
+      <c r="B78" t="s">
+        <v>103</v>
+      </c>
+      <c r="C78">
+        <v>320.25099999999998</v>
+      </c>
+      <c r="D78">
+        <v>2663.6060000000002</v>
+      </c>
+      <c r="E78">
+        <v>835.12099999999998</v>
+      </c>
+      <c r="F78">
+        <v>872.26499999999999</v>
+      </c>
+      <c r="G78">
+        <v>1470.3340000000001</v>
+      </c>
+      <c r="H78">
+        <v>21812.120999999999</v>
+      </c>
+      <c r="I78">
+        <v>1209.9000000000001</v>
+      </c>
+      <c r="J78">
+        <v>12591.537</v>
+      </c>
+      <c r="K78">
+        <v>220</v>
+      </c>
+      <c r="L78">
+        <v>0</v>
+      </c>
+      <c r="M78">
+        <v>0</v>
+      </c>
+      <c r="N78">
+        <v>2020.298</v>
+      </c>
+      <c r="O78">
+        <v>15586.17</v>
+      </c>
+      <c r="P78">
+        <v>12950.985000000001</v>
+      </c>
+      <c r="Q78">
+        <v>-652.351</v>
+      </c>
+      <c r="R78">
+        <v>43830</v>
+      </c>
+      <c r="S78">
+        <v>2882</v>
+      </c>
+      <c r="T78">
+        <v>6225.951</v>
+      </c>
+      <c r="U78">
+        <v>20.957999999999998</v>
+      </c>
+      <c r="V78">
+        <v>619.93399999999997</v>
+      </c>
+      <c r="W78">
+        <v>0</v>
+      </c>
+      <c r="X78">
+        <v>-151.40100000000001</v>
+      </c>
+      <c r="Y78">
+        <v>37.805</v>
+      </c>
+      <c r="Z78">
+        <v>11.997</v>
+      </c>
+      <c r="AA78">
+        <v>320.25099999999998</v>
+      </c>
+    </row>
+    <row r="79" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A79" s="1">
+        <v>43921</v>
+      </c>
+      <c r="B79" t="s">
+        <v>104</v>
+      </c>
+      <c r="C79">
+        <v>-141.857</v>
+      </c>
+      <c r="D79">
+        <v>2136.672</v>
+      </c>
+      <c r="E79">
+        <v>497.55599999999998</v>
+      </c>
+      <c r="F79">
+        <v>859.74400000000003</v>
+      </c>
+      <c r="G79">
+        <v>1488.2819999999999</v>
+      </c>
+      <c r="H79">
+        <v>21969.439999999999</v>
+      </c>
+      <c r="I79">
+        <v>742.36900000000003</v>
+      </c>
+      <c r="J79">
+        <v>14388.273999999999</v>
+      </c>
+      <c r="K79">
+        <v>0</v>
+      </c>
+      <c r="L79">
+        <v>-220</v>
+      </c>
+      <c r="M79">
+        <v>-52.389000000000003</v>
+      </c>
+      <c r="N79">
+        <v>1091.3920000000001</v>
+      </c>
+      <c r="O79">
+        <v>16408.798999999999</v>
+      </c>
+      <c r="P79">
+        <v>14531.58</v>
+      </c>
+      <c r="Q79">
+        <v>510.67200000000003</v>
+      </c>
+      <c r="R79">
+        <v>43921</v>
+      </c>
+      <c r="S79">
+        <v>0</v>
+      </c>
+      <c r="T79">
+        <v>5560.6409999999996</v>
+      </c>
+      <c r="U79">
+        <v>531.63</v>
+      </c>
+      <c r="V79">
+        <v>422.721</v>
+      </c>
+      <c r="W79">
+        <v>-386.66699999999997</v>
+      </c>
+      <c r="X79">
+        <v>1052.7429999999999</v>
+      </c>
+      <c r="Y79">
+        <v>122.23099999999999</v>
+      </c>
+      <c r="Z79">
+        <v>6.9489999999999998</v>
+      </c>
+      <c r="AA79">
+        <v>-141.857</v>
+      </c>
+    </row>
+    <row r="80" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A80" s="1">
+        <v>44012</v>
+      </c>
+      <c r="B80" t="s">
+        <v>105</v>
+      </c>
+      <c r="C80">
+        <v>134.321</v>
+      </c>
+      <c r="D80">
+        <v>1660.729</v>
+      </c>
+      <c r="E80">
+        <v>608.923</v>
+      </c>
+      <c r="F80">
+        <v>720.27099999999996</v>
+      </c>
+      <c r="G80">
+        <v>2179.8589999999999</v>
+      </c>
+      <c r="H80">
+        <v>22992.467000000001</v>
+      </c>
+      <c r="I80">
+        <v>755.47400000000005</v>
+      </c>
+      <c r="J80">
+        <v>14517.437</v>
+      </c>
+      <c r="K80">
+        <v>0</v>
+      </c>
+      <c r="L80">
+        <v>0</v>
+      </c>
+      <c r="M80">
+        <v>0</v>
+      </c>
+      <c r="N80">
+        <v>1273.1020000000001</v>
+      </c>
+      <c r="O80">
+        <v>16751.814999999999</v>
+      </c>
+      <c r="P80">
+        <v>14657.666999999999</v>
+      </c>
+      <c r="Q80">
+        <v>414.10199999999998</v>
+      </c>
+      <c r="R80">
+        <v>44012</v>
+      </c>
+      <c r="S80">
+        <v>0</v>
+      </c>
+      <c r="T80">
+        <v>6240.652</v>
+      </c>
+      <c r="U80">
+        <v>945.73199999999997</v>
+      </c>
+      <c r="V80">
+        <v>313.697</v>
+      </c>
+      <c r="W80">
+        <v>-387.29399999999998</v>
+      </c>
+      <c r="X80">
+        <v>690.49900000000002</v>
+      </c>
+      <c r="Y80">
+        <v>116.71599999999999</v>
+      </c>
+      <c r="Z80">
+        <v>11.132</v>
+      </c>
+      <c r="AA80">
+        <v>134.321</v>
+      </c>
+    </row>
+    <row r="81" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A81" s="1">
+        <v>44104</v>
+      </c>
+      <c r="B81" t="s">
+        <v>106</v>
+      </c>
+      <c r="C81">
+        <v>312.31599999999997</v>
+      </c>
+      <c r="D81">
+        <v>2174.2640000000001</v>
+      </c>
+      <c r="E81">
+        <v>717.85199999999998</v>
+      </c>
+      <c r="F81">
+        <v>908.59</v>
+      </c>
+      <c r="G81">
+        <v>1721.3620000000001</v>
+      </c>
+      <c r="H81">
+        <v>22780.876</v>
+      </c>
+      <c r="I81">
+        <v>624.48299999999995</v>
+      </c>
+      <c r="J81">
+        <v>14481.33</v>
+      </c>
+      <c r="K81">
+        <v>0</v>
+      </c>
+      <c r="L81">
+        <v>0</v>
+      </c>
+      <c r="M81">
+        <v>0</v>
+      </c>
+      <c r="N81">
+        <v>1094.1420000000001</v>
+      </c>
+      <c r="O81">
+        <v>16634.763999999999</v>
+      </c>
+      <c r="P81">
+        <v>14618.232</v>
+      </c>
+      <c r="Q81">
+        <v>-498.60300000000001</v>
+      </c>
+      <c r="R81">
+        <v>44104</v>
+      </c>
+      <c r="S81">
+        <v>0</v>
+      </c>
+      <c r="T81">
+        <v>6146.1120000000001</v>
+      </c>
+      <c r="U81">
+        <v>447.12900000000002</v>
+      </c>
+      <c r="V81">
+        <v>366.71</v>
+      </c>
+      <c r="W81">
+        <v>-415.61399999999998</v>
+      </c>
+      <c r="X81">
+        <v>-438.32799999999997</v>
+      </c>
+      <c r="Y81">
+        <v>114.40600000000001</v>
+      </c>
+      <c r="Z81">
+        <v>4.1989999999999998</v>
+      </c>
+      <c r="AA81">
+        <v>312.31599999999997</v>
+      </c>
+    </row>
+    <row r="82" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A82" s="1">
+        <v>44196</v>
+      </c>
+      <c r="B82" t="s">
+        <v>107</v>
+      </c>
+      <c r="C82">
         <v>308.029</v>
       </c>
-      <c r="D42">
+      <c r="D82">
         <v>2570.5770000000002</v>
       </c>
-      <c r="E42">
+      <c r="E82">
         <v>829.79600000000005</v>
       </c>
-      <c r="F42">
+      <c r="F82">
         <v>943.49099999999999</v>
       </c>
-      <c r="G42">
+      <c r="G82">
         <v>1869.7750000000001</v>
       </c>
-      <c r="H42">
+      <c r="H82">
         <v>23078.754000000001</v>
       </c>
-      <c r="I42">
+      <c r="I82">
         <v>719.30200000000002</v>
       </c>
-      <c r="J42">
+      <c r="J82">
         <v>14431.828</v>
       </c>
-      <c r="K42">
-        <v>0</v>
-      </c>
-      <c r="L42">
-        <v>0</v>
-      </c>
-      <c r="M42">
-        <v>0</v>
-      </c>
-      <c r="N42">
+      <c r="K82">
+        <v>0</v>
+      </c>
+      <c r="L82">
+        <v>0</v>
+      </c>
+      <c r="M82">
+        <v>0</v>
+      </c>
+      <c r="N82">
         <v>1344.547</v>
       </c>
-      <c r="O42">
+      <c r="O82">
         <v>17036.356</v>
       </c>
-      <c r="P42">
+      <c r="P82">
         <v>14564.994000000001</v>
       </c>
-      <c r="Q42">
+      <c r="Q82">
         <v>77.367000000000004</v>
       </c>
-      <c r="R42">
+      <c r="R82">
         <v>44196</v>
       </c>
-      <c r="S42">
+      <c r="S82">
         <v>2886</v>
       </c>
-      <c r="T42">
+      <c r="T82">
         <v>6042.3980000000001</v>
       </c>
-      <c r="U42">
+      <c r="U82">
         <v>524.49599999999998</v>
       </c>
-      <c r="V42">
+      <c r="V82">
         <v>795.94</v>
       </c>
-      <c r="W42">
-        <v>0</v>
-      </c>
-      <c r="X42">
+      <c r="W82">
+        <v>0</v>
+      </c>
+      <c r="X82">
         <v>-429.91500000000002</v>
       </c>
-      <c r="Y42">
+      <c r="Y82">
         <v>109.753</v>
       </c>
-      <c r="Z42">
+      <c r="Z82">
         <v>9.5280000000000005</v>
       </c>
-      <c r="AA42">
+      <c r="AA82">
         <v>308.029</v>
       </c>
     </row>
